--- a/legendre_out/CSV/analytically/p2/a0/a0Fit.xlsx
+++ b/legendre_out/CSV/analytically/p2/a0/a0Fit.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B229"/>
+  <dimension ref="A1:F229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -372,13 +372,45 @@
           <t>a0</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>a0_err</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Chi2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Pval</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Chi2NDF</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>3.99602</v>
       </c>
       <c r="B2" t="n">
-        <v>1.242077101488851e-05</v>
+        <v>1.241170451106842e-05</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.428454469398921e-07</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.722742169446455</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1897817120244698</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.453790361574409</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +418,19 @@
         <v>4.00097</v>
       </c>
       <c r="B3" t="n">
-        <v>1.82644937564715e-05</v>
+        <v>1.877198635446651e-05</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.071725354489127e-07</v>
+      </c>
+      <c r="D3" t="n">
+        <v>38.65340507507563</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8.36899768819066e-07</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6.442234179179271</v>
       </c>
     </row>
     <row r="4">
@@ -394,7 +438,19 @@
         <v>4.00294</v>
       </c>
       <c r="B4" t="n">
-        <v>2.168010640002081e-05</v>
+        <v>2.214998408987156e-05</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.68755278780725e-07</v>
+      </c>
+      <c r="D4" t="n">
+        <v>40.11414828192208</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.32581353293493e-07</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.685691380320347</v>
       </c>
     </row>
     <row r="5">
@@ -402,7 +458,19 @@
         <v>4.00497</v>
       </c>
       <c r="B5" t="n">
-        <v>2.570532254120591e-05</v>
+        <v>2.5843089475548e-05</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.639358787031231e-07</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19.5830507250564</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.003284305494379192</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.2638417875094</v>
       </c>
     </row>
     <row r="6">
@@ -410,7 +478,19 @@
         <v>4.00697</v>
       </c>
       <c r="B6" t="n">
-        <v>3.224035644033367e-05</v>
+        <v>3.220685012610558e-05</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7.696134318422654e-07</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.604710301917951</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.2685164930124453</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.267451716986325</v>
       </c>
     </row>
     <row r="7">
@@ -418,7 +498,19 @@
         <v>4.00909</v>
       </c>
       <c r="B7" t="n">
-        <v>3.305577870842018e-05</v>
+        <v>3.320620197451821e-05</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8.311249416121524e-07</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.915542507920151</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.2443564280164026</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.319257084653358</v>
       </c>
     </row>
     <row r="8">
@@ -426,7 +518,19 @@
         <v>4.01003</v>
       </c>
       <c r="B8" t="n">
-        <v>3.498753179165501e-05</v>
+        <v>3.487814214367719e-05</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8.639453554258853e-07</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.108228568768231</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7951455977475921</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.5180380947947052</v>
       </c>
     </row>
     <row r="9">
@@ -434,7 +538,19 @@
         <v>4.01507</v>
       </c>
       <c r="B9" t="n">
-        <v>3.883199604726771e-05</v>
+        <v>3.880401083384615e-05</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8.875463852184801e-07</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.368933219881602</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4974372439097902</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.8948222033136003</v>
       </c>
     </row>
     <row r="10">
@@ -442,7 +558,19 @@
         <v>4.01911</v>
       </c>
       <c r="B10" t="n">
-        <v>3.806783142106455e-05</v>
+        <v>3.808348535134929e-05</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.491158712519023e-07</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.55057124871272</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7372297088462562</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.5917618747854534</v>
       </c>
     </row>
     <row r="11">
@@ -450,7 +578,19 @@
         <v>4.01992</v>
       </c>
       <c r="B11" t="n">
-        <v>3.542706943269608e-05</v>
+        <v>3.535770353882088e-05</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8.518810529781165e-07</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4.63837993213424</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.590956422556624</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.7730633220223734</v>
       </c>
     </row>
     <row r="12">
@@ -458,7 +598,19 @@
         <v>4.02504</v>
       </c>
       <c r="B12" t="n">
-        <v>3.42708668142293e-05</v>
+        <v>3.44939955295027e-05</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8.346351479042057e-07</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9.864882033931053</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.1304586702745436</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.644147005655175</v>
       </c>
     </row>
     <row r="13">
@@ -466,7 +618,19 @@
         <v>4.02998</v>
       </c>
       <c r="B13" t="n">
-        <v>2.96583154718457e-05</v>
+        <v>2.969024453726472e-05</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7.028908002663697e-07</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4.774525481637455</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5730400845524697</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.7957542469395759</v>
       </c>
     </row>
     <row r="14">
@@ -474,7 +638,19 @@
         <v>4.03514</v>
       </c>
       <c r="B14" t="n">
-        <v>2.302351315888801e-05</v>
+        <v>2.307418451494334e-05</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5.743122058642892e-07</v>
+      </c>
+      <c r="D14" t="n">
+        <v>13.7950759721599</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.03201095322107017</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.299179328693316</v>
       </c>
     </row>
     <row r="15">
@@ -482,7 +658,19 @@
         <v>4.26996</v>
       </c>
       <c r="B15" t="n">
-        <v>1.33080909228805e-05</v>
+        <v>1.330019559497251e-05</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.97529389056954e-07</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.922155625326333</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9267168213054436</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.3203592708877222</v>
       </c>
     </row>
     <row r="16">
@@ -490,7 +678,19 @@
         <v>4.29005</v>
       </c>
       <c r="B16" t="n">
-        <v>1.889120018656614e-05</v>
+        <v>1.883857564757885e-05</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5.194765005082065e-07</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.40265580854385</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7568726290896748</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.567109301423975</v>
       </c>
     </row>
     <row r="17">
@@ -498,7 +698,19 @@
         <v>4.291119999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>2.591299135479512e-05</v>
+        <v>2.618042987257649e-05</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7.14442849500024e-07</v>
+      </c>
+      <c r="D17" t="n">
+        <v>23.0180297235037</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0007904624125847359</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.836338287250616</v>
       </c>
     </row>
     <row r="18">
@@ -506,7 +718,19 @@
         <v>4.29319</v>
       </c>
       <c r="B18" t="n">
-        <v>3.160673529395298e-05</v>
+        <v>3.205655900218398e-05</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8.257288311252936e-07</v>
+      </c>
+      <c r="D18" t="n">
+        <v>22.0776126692234</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.001172277458853288</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3.679602111537232</v>
       </c>
     </row>
     <row r="19">
@@ -514,7 +738,19 @@
         <v>4.2942</v>
       </c>
       <c r="B19" t="n">
-        <v>3.611618177525503e-05</v>
+        <v>3.658415412329255e-05</v>
+      </c>
+      <c r="C19" t="n">
+        <v>9.331976961641296e-07</v>
+      </c>
+      <c r="D19" t="n">
+        <v>25.14351163489842</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0003211806337437562</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4.19058527248307</v>
       </c>
     </row>
     <row r="20">
@@ -522,7 +758,19 @@
         <v>4.29515</v>
       </c>
       <c r="B20" t="n">
-        <v>4.357979856457981e-05</v>
+        <v>4.445730506890187e-05</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.095674861094461e-06</v>
+      </c>
+      <c r="D20" t="n">
+        <v>35.68556727413183</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.172920006400126e-06</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5.947594545688639</v>
       </c>
     </row>
     <row r="21">
@@ -530,7 +778,19 @@
         <v>4.29615</v>
       </c>
       <c r="B21" t="n">
-        <v>4.723536419392833e-05</v>
+        <v>4.839295386953474e-05</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.214410100996826e-06</v>
+      </c>
+      <c r="D21" t="n">
+        <v>45.1618819895594</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4.346047965952948e-08</v>
+      </c>
+      <c r="F21" t="n">
+        <v>7.526980331593234</v>
       </c>
     </row>
     <row r="22">
@@ -538,7 +798,19 @@
         <v>4.297219999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>7.353124323351819e-05</v>
+        <v>7.501064397000382e-05</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.773234098342669e-06</v>
+      </c>
+      <c r="D22" t="n">
+        <v>33.63508379946356</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7.91162681679225e-06</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5.605847299910593</v>
       </c>
     </row>
     <row r="23">
@@ -546,7 +818,19 @@
         <v>4.298080000000001</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0002059722914769474</v>
+        <v>0.0002151461913174742</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.948085733917549e-06</v>
+      </c>
+      <c r="D23" t="n">
+        <v>66.34314456792683</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.293165657363261e-12</v>
+      </c>
+      <c r="F23" t="n">
+        <v>11.05719076132114</v>
       </c>
     </row>
     <row r="24">
@@ -554,7 +838,19 @@
         <v>4.299090000000001</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0003245457983164988</v>
+        <v>0.0003396825195153225</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7.710083986089468e-06</v>
+      </c>
+      <c r="D24" t="n">
+        <v>71.49363294534653</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.018385458768535e-13</v>
+      </c>
+      <c r="F24" t="n">
+        <v>11.91560549089109</v>
       </c>
     </row>
     <row r="25">
@@ -562,7 +858,19 @@
         <v>4.30105</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0004937102898580713</v>
+        <v>0.0005098464943962264</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.132565457845298e-05</v>
+      </c>
+      <c r="D25" t="n">
+        <v>49.76922914985502</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5.229381372373609e-09</v>
+      </c>
+      <c r="F25" t="n">
+        <v>8.294871524975838</v>
       </c>
     </row>
     <row r="26">
@@ -570,7 +878,19 @@
         <v>4.3031</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0004904237157438063</v>
+        <v>0.000512046202221256</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.119741189711025e-05</v>
+      </c>
+      <c r="D26" t="n">
+        <v>65.14205403743524</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4.035216605302594e-12</v>
+      </c>
+      <c r="F26" t="n">
+        <v>10.85700900623921</v>
       </c>
     </row>
     <row r="27">
@@ -578,7 +898,19 @@
         <v>4.30523</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0004578937030096234</v>
+        <v>0.0004750327175644477</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.055863140479367e-05</v>
+      </c>
+      <c r="D27" t="n">
+        <v>58.57792198279377</v>
+      </c>
+      <c r="E27" t="n">
+        <v>8.749390101314702e-11</v>
+      </c>
+      <c r="F27" t="n">
+        <v>9.762986997132295</v>
       </c>
     </row>
     <row r="28">
@@ -586,7 +918,19 @@
         <v>4.30725</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0004377823373614681</v>
+        <v>0.0004540377271785283</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.029780319710408e-05</v>
+      </c>
+      <c r="D28" t="n">
+        <v>58.61016120668757</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8.618639135704598e-11</v>
+      </c>
+      <c r="F28" t="n">
+        <v>9.768360201114595</v>
       </c>
     </row>
     <row r="29">
@@ -594,7 +938,19 @@
         <v>4.3093</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0004410940849351585</v>
+        <v>0.0004564591475428766</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.031392723519814e-05</v>
+      </c>
+      <c r="D29" t="n">
+        <v>54.37329667446646</v>
+      </c>
+      <c r="E29" t="n">
+        <v>6.202857116832661e-10</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9.062216112411077</v>
       </c>
     </row>
     <row r="30">
@@ -602,7 +958,19 @@
         <v>4.30996</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0004502422849280253</v>
+        <v>0.0004634026624803444</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.026749209246849e-05</v>
+      </c>
+      <c r="D30" t="n">
+        <v>45.91353969878766</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.0802368100602e-08</v>
+      </c>
+      <c r="F30" t="n">
+        <v>7.65225661646461</v>
       </c>
     </row>
     <row r="31">
@@ -610,7 +978,19 @@
         <v>4.31117</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0004307469250101363</v>
+        <v>0.0004447234384138154</v>
+      </c>
+      <c r="C31" t="n">
+        <v>9.912392923976507e-06</v>
+      </c>
+      <c r="D31" t="n">
+        <v>51.80473769882521</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.041243618577937e-09</v>
+      </c>
+      <c r="F31" t="n">
+        <v>8.634122949804203</v>
       </c>
     </row>
     <row r="32">
@@ -618,7 +998,19 @@
         <v>4.31311</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0004327650524761901</v>
+        <v>0.0004502699392074858</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.007282631279334e-05</v>
+      </c>
+      <c r="D32" t="n">
+        <v>61.23798779524543</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2.521394204535454e-11</v>
+      </c>
+      <c r="F32" t="n">
+        <v>10.20633129920757</v>
       </c>
     </row>
     <row r="33">
@@ -626,7 +1018,19 @@
         <v>4.31513</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0004252092359088309</v>
+        <v>0.0004458120911818365</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.010816463658352e-05</v>
+      </c>
+      <c r="D33" t="n">
+        <v>73.64207848169691</v>
+      </c>
+      <c r="E33" t="n">
+        <v>7.30526750203353e-14</v>
+      </c>
+      <c r="F33" t="n">
+        <v>12.27367974694948</v>
       </c>
     </row>
     <row r="34">
@@ -634,7 +1038,19 @@
         <v>4.3172</v>
       </c>
       <c r="B34" t="n">
-        <v>0.000423882105701617</v>
+        <v>0.0004373748938930331</v>
+      </c>
+      <c r="C34" t="n">
+        <v>9.712285264993809e-06</v>
+      </c>
+      <c r="D34" t="n">
+        <v>51.41471353989903</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2.444989877226078e-09</v>
+      </c>
+      <c r="F34" t="n">
+        <v>8.569118923316504</v>
       </c>
     </row>
     <row r="35">
@@ -642,7 +1058,19 @@
         <v>4.31917</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0004135679905504439</v>
+        <v>0.0004280120909759073</v>
+      </c>
+      <c r="C35" t="n">
+        <v>9.711727663426844e-06</v>
+      </c>
+      <c r="D35" t="n">
+        <v>54.06911653976545</v>
+      </c>
+      <c r="E35" t="n">
+        <v>7.144144165138755e-10</v>
+      </c>
+      <c r="F35" t="n">
+        <v>9.01151942329424</v>
       </c>
     </row>
     <row r="36">
@@ -650,7 +1078,19 @@
         <v>4.32116</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0003817517068531134</v>
+        <v>0.0003961269099918431</v>
+      </c>
+      <c r="C36" t="n">
+        <v>8.888532737120408e-06</v>
+      </c>
+      <c r="D36" t="n">
+        <v>60.42507055329011</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3.689237804138656e-11</v>
+      </c>
+      <c r="F36" t="n">
+        <v>10.07084509221502</v>
       </c>
     </row>
     <row r="37">
@@ -658,7 +1098,19 @@
         <v>4.32298</v>
       </c>
       <c r="B37" t="n">
-        <v>0.000345931828850004</v>
+        <v>0.0003600921994281007</v>
+      </c>
+      <c r="C37" t="n">
+        <v>8.067621434182141e-06</v>
+      </c>
+      <c r="D37" t="n">
+        <v>65.03033024593552</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4.252820318129125e-12</v>
+      </c>
+      <c r="F37" t="n">
+        <v>10.83838837432259</v>
       </c>
     </row>
     <row r="38">
@@ -666,7 +1118,19 @@
         <v>4.32521</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0002803933039685355</v>
+        <v>0.0002917940776498399</v>
+      </c>
+      <c r="C38" t="n">
+        <v>6.493712970326509e-06</v>
+      </c>
+      <c r="D38" t="n">
+        <v>63.71864449302596</v>
+      </c>
+      <c r="E38" t="n">
+        <v>7.877032359715486e-12</v>
+      </c>
+      <c r="F38" t="n">
+        <v>10.61977408217099</v>
       </c>
     </row>
     <row r="39">
@@ -674,7 +1138,19 @@
         <v>4.32711</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0002255404319718986</v>
+        <v>0.0002331151901512396</v>
+      </c>
+      <c r="C39" t="n">
+        <v>5.158292969845268e-06</v>
+      </c>
+      <c r="D39" t="n">
+        <v>52.31372458718607</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.612637356984692e-09</v>
+      </c>
+      <c r="F39" t="n">
+        <v>8.718954097864344</v>
       </c>
     </row>
     <row r="40">
@@ -682,7 +1158,19 @@
         <v>4.32908</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0001497703069356243</v>
+        <v>0.0001568204401382842</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3.519797389152196e-06</v>
+      </c>
+      <c r="D40" t="n">
+        <v>72.2021366905883</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.444400155037329e-13</v>
+      </c>
+      <c r="F40" t="n">
+        <v>12.03368944843138</v>
       </c>
     </row>
     <row r="41">
@@ -690,7 +1178,19 @@
         <v>4.33012</v>
       </c>
       <c r="B41" t="n">
-        <v>0.000215198269710045</v>
+        <v>0.0002225427489130734</v>
+      </c>
+      <c r="C41" t="n">
+        <v>5.021072501376016e-06</v>
+      </c>
+      <c r="D41" t="n">
+        <v>51.93622612194797</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.920700487545446e-09</v>
+      </c>
+      <c r="F41" t="n">
+        <v>8.656037686991327</v>
       </c>
     </row>
     <row r="42">
@@ -698,7 +1198,19 @@
         <v>4.33119</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0001079713168017391</v>
+        <v>0.0001117796372405666</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2.569907033905993e-06</v>
+      </c>
+      <c r="D42" t="n">
+        <v>56.81276956889229</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.993513132347857e-10</v>
+      </c>
+      <c r="F42" t="n">
+        <v>9.468794928148716</v>
       </c>
     </row>
     <row r="43">
@@ -706,7 +1218,19 @@
         <v>4.33324</v>
       </c>
       <c r="B43" t="n">
-        <v>7.449438310169321e-05</v>
+        <v>7.567521118496959e-05</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.741980976709618e-06</v>
+      </c>
+      <c r="D43" t="n">
+        <v>24.55697711874233</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0004123287657223917</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4.092829519790389</v>
       </c>
     </row>
     <row r="44">
@@ -714,7 +1238,19 @@
         <v>4.33515</v>
       </c>
       <c r="B44" t="n">
-        <v>5.68120932149927e-05</v>
+        <v>5.756760681255383e-05</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.345993984308675e-06</v>
+      </c>
+      <c r="D44" t="n">
+        <v>27.11120362386063</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0001380232685384009</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4.518533937310106</v>
       </c>
     </row>
     <row r="45">
@@ -722,7 +1258,19 @@
         <v>4.34004</v>
       </c>
       <c r="B45" t="n">
-        <v>3.405323597348727e-05</v>
+        <v>3.469183415972516e-05</v>
+      </c>
+      <c r="C45" t="n">
+        <v>8.786928577101814e-07</v>
+      </c>
+      <c r="D45" t="n">
+        <v>27.63298340202487</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.0001101560812519775</v>
+      </c>
+      <c r="F45" t="n">
+        <v>4.605497233670811</v>
       </c>
     </row>
     <row r="46">
@@ -730,7 +1278,19 @@
         <v>4.34488</v>
       </c>
       <c r="B46" t="n">
-        <v>3.00041784913593e-05</v>
+        <v>3.003076237469752e-05</v>
+      </c>
+      <c r="C46" t="n">
+        <v>7.938928324959999e-07</v>
+      </c>
+      <c r="D46" t="n">
+        <v>11.82704340270203</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.06594036490939759</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.971173900450339</v>
       </c>
     </row>
     <row r="47">
@@ -738,7 +1298,19 @@
         <v>4.34998</v>
       </c>
       <c r="B47" t="n">
-        <v>2.86337590201363e-05</v>
+        <v>2.867684759723415e-05</v>
+      </c>
+      <c r="C47" t="n">
+        <v>7.342335083271322e-07</v>
+      </c>
+      <c r="D47" t="n">
+        <v>7.679653344746083</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.2625245225344766</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.279942224124347</v>
       </c>
     </row>
     <row r="48">
@@ -746,7 +1318,19 @@
         <v>4.37005</v>
       </c>
       <c r="B48" t="n">
-        <v>3.01744436929048e-05</v>
+        <v>3.032693161010965e-05</v>
+      </c>
+      <c r="C48" t="n">
+        <v>7.523769598581527e-07</v>
+      </c>
+      <c r="D48" t="n">
+        <v>8.750338697490058</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.188113318686328</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.45838978291501</v>
       </c>
     </row>
     <row r="49">
@@ -754,7 +1338,19 @@
         <v>4.39015</v>
       </c>
       <c r="B49" t="n">
-        <v>3.965197287197299e-05</v>
+        <v>3.972299075216168e-05</v>
+      </c>
+      <c r="C49" t="n">
+        <v>9.414741270633983e-07</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3.308560263456652</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.7692407443475822</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.5514267105761087</v>
       </c>
     </row>
     <row r="50">
@@ -762,7 +1358,19 @@
         <v>4.41003</v>
       </c>
       <c r="B50" t="n">
-        <v>5.365510158576771e-05</v>
+        <v>5.379690376000308e-05</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.239793299563924e-06</v>
+      </c>
+      <c r="D50" t="n">
+        <v>6.195531064736667</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.4016470150598505</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.032588510789445</v>
       </c>
     </row>
     <row r="51">
@@ -770,7 +1378,19 @@
         <v>4.42024</v>
       </c>
       <c r="B51" t="n">
-        <v>7.788336668734509e-05</v>
+        <v>7.819942826363698e-05</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.761435679294811e-06</v>
+      </c>
+      <c r="D51" t="n">
+        <v>7.949597691418383</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.2418192204905276</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.324932948569731</v>
       </c>
     </row>
     <row r="52">
@@ -778,7 +1398,19 @@
         <v>4.43018</v>
       </c>
       <c r="B52" t="n">
-        <v>9.703432572510155e-05</v>
+        <v>9.744000612182306e-05</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2.116274489097676e-06</v>
+      </c>
+      <c r="D52" t="n">
+        <v>5.423283400258517</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.4907770094932128</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.9038805667097528</v>
       </c>
     </row>
     <row r="53">
@@ -786,7 +1418,19 @@
         <v>4.44004</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0001830238373164453</v>
+        <v>0.0001839981044036167</v>
+      </c>
+      <c r="C53" t="n">
+        <v>4.121102706736884e-06</v>
+      </c>
+      <c r="D53" t="n">
+        <v>6.751868995410348</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.3444050616274417</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.125311499235058</v>
       </c>
     </row>
     <row r="54">
@@ -794,7 +1438,19 @@
         <v>4.44994</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0002803423168646499</v>
+        <v>0.0002832560513255109</v>
+      </c>
+      <c r="C54" t="n">
+        <v>6.172311515030777e-06</v>
+      </c>
+      <c r="D54" t="n">
+        <v>10.84721241405757</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.09321486334825235</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.807868735676262</v>
       </c>
     </row>
     <row r="55">
@@ -802,7 +1458,19 @@
         <v>4.45499</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0006608948267041653</v>
+        <v>0.0006673319342663216</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.477529879175241e-05</v>
+      </c>
+      <c r="D55" t="n">
+        <v>10.20990920854496</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.1160860926088829</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.701651534757493</v>
       </c>
     </row>
     <row r="56">
@@ -810,7 +1478,19 @@
         <v>4.46012</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0009962823256922208</v>
+        <v>0.001003436106603694</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2.170768738185927e-05</v>
+      </c>
+      <c r="D56" t="n">
+        <v>9.104392282425426</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.1677916842851046</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.517398713737571</v>
       </c>
     </row>
     <row r="57">
@@ -818,7 +1498,19 @@
         <v>4.469959999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>0.001030114513206023</v>
+        <v>0.001044036665994224</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2.219201116805519e-05</v>
+      </c>
+      <c r="D57" t="n">
+        <v>16.85363012365973</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.00983649870358827</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2.808938353943288</v>
       </c>
     </row>
     <row r="58">
@@ -826,7 +1518,19 @@
         <v>4.477980000000001</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0007700946359393138</v>
+        <v>0.0007772371599245694</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.689183293759741e-05</v>
+      </c>
+      <c r="D58" t="n">
+        <v>11.21374636306402</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.08199075867249139</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.868957727177337</v>
       </c>
     </row>
     <row r="59">
@@ -834,7 +1538,19 @@
         <v>4.48613</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0003679063638947902</v>
+        <v>0.0003708986973392685</v>
+      </c>
+      <c r="C59" t="n">
+        <v>8.161951695514508e-06</v>
+      </c>
+      <c r="D59" t="n">
+        <v>10.54303433533635</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.1035686143663378</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.757172389222724</v>
       </c>
     </row>
     <row r="60">
@@ -842,7 +1558,19 @@
         <v>4.48819</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0002714938212968585</v>
+        <v>0.0002737392706639081</v>
+      </c>
+      <c r="C60" t="n">
+        <v>6.098401761826729e-06</v>
+      </c>
+      <c r="D60" t="n">
+        <v>9.616727209507481</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.1417482251470497</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.602787868251247</v>
       </c>
     </row>
     <row r="61">
@@ -850,7 +1578,19 @@
         <v>4.490069999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0003556265286197788</v>
+        <v>0.0003597804280049082</v>
+      </c>
+      <c r="C61" t="n">
+        <v>7.814091881470484e-06</v>
+      </c>
+      <c r="D61" t="n">
+        <v>14.20175856354475</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.02746183902258204</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2.366959760590791</v>
       </c>
     </row>
     <row r="62">
@@ -858,7 +1598,19 @@
         <v>4.49222</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0001413658927737357</v>
+        <v>0.0001417884208404552</v>
+      </c>
+      <c r="C62" t="n">
+        <v>3.22029897274669e-06</v>
+      </c>
+      <c r="D62" t="n">
+        <v>6.601133362926616</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.359312673043567</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.100188893821103</v>
       </c>
     </row>
     <row r="63">
@@ -866,7 +1618,19 @@
         <v>4.49499</v>
       </c>
       <c r="B63" t="n">
-        <v>9.649045702135302e-05</v>
+        <v>9.648395684784487e-05</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2.156024988748418e-06</v>
+      </c>
+      <c r="D63" t="n">
+        <v>4.037570219217633</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.671591988742394</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.6729283698696055</v>
       </c>
     </row>
     <row r="64">
@@ -874,7 +1638,19 @@
         <v>4.499969999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>5.605495272628997e-05</v>
+        <v>5.603820598396418e-05</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.337204156969902e-06</v>
+      </c>
+      <c r="D64" t="n">
+        <v>8.415280166955029</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.2092295224074376</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.402546694492505</v>
       </c>
     </row>
     <row r="65">
@@ -882,7 +1658,19 @@
         <v>4.51021</v>
       </c>
       <c r="B65" t="n">
-        <v>4.222803804739706e-05</v>
+        <v>4.248447988434206e-05</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.022428558006729e-06</v>
+      </c>
+      <c r="D65" t="n">
+        <v>8.190314850511418</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.2244893566163646</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1.365052475085236</v>
       </c>
     </row>
     <row r="66">
@@ -890,7 +1678,19 @@
         <v>4.51218</v>
       </c>
       <c r="B66" t="n">
-        <v>9.655860333147945e-05</v>
+        <v>9.902609076198428e-05</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2.327416067611337e-06</v>
+      </c>
+      <c r="D66" t="n">
+        <v>39.58790458868469</v>
+      </c>
+      <c r="E66" t="n">
+        <v>5.488366222605734e-07</v>
+      </c>
+      <c r="F66" t="n">
+        <v>6.597984098114115</v>
       </c>
     </row>
     <row r="67">
@@ -898,7 +1698,19 @@
         <v>4.51508</v>
       </c>
       <c r="B67" t="n">
-        <v>0.000276659549949829</v>
+        <v>0.0002852286059950773</v>
+      </c>
+      <c r="C67" t="n">
+        <v>6.509540131660183e-06</v>
+      </c>
+      <c r="D67" t="n">
+        <v>51.16278290167494</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2.747150729121017e-09</v>
+      </c>
+      <c r="F67" t="n">
+        <v>8.52713048361249</v>
       </c>
     </row>
     <row r="68">
@@ -906,7 +1718,19 @@
         <v>4.52007</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0004879823515677457</v>
+        <v>0.0004991714957312775</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.094954149433054e-05</v>
+      </c>
+      <c r="D68" t="n">
+        <v>37.0309793993086</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.736571730859282e-06</v>
+      </c>
+      <c r="F68" t="n">
+        <v>6.171829899884766</v>
       </c>
     </row>
     <row r="69">
@@ -914,7 +1738,19 @@
         <v>4.52524</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0008876238967915165</v>
+        <v>0.0009023947822399326</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1.975672636862764e-05</v>
+      </c>
+      <c r="D69" t="n">
+        <v>30.34532662274819</v>
+      </c>
+      <c r="E69" t="n">
+        <v>3.378986133117934e-05</v>
+      </c>
+      <c r="F69" t="n">
+        <v>5.057554437124698</v>
       </c>
     </row>
     <row r="70">
@@ -922,7 +1758,19 @@
         <v>4.529409999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0008840111938404754</v>
+        <v>0.0009012522927827028</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1.907778140168953e-05</v>
+      </c>
+      <c r="D70" t="n">
+        <v>32.46256617249972</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.330175002534073e-05</v>
+      </c>
+      <c r="F70" t="n">
+        <v>5.41042769541662</v>
       </c>
     </row>
     <row r="71">
@@ -930,7 +1778,19 @@
         <v>4.53506</v>
       </c>
       <c r="B71" t="n">
-        <v>0.001550430660096676</v>
+        <v>0.001570706747367629</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3.345242207303537e-05</v>
+      </c>
+      <c r="D71" t="n">
+        <v>22.94209702333752</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.000816105560939695</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3.82368283722292</v>
       </c>
     </row>
     <row r="72">
@@ -938,7 +1798,19 @@
         <v>4.54024</v>
       </c>
       <c r="B72" t="n">
-        <v>0.001723009740607054</v>
+        <v>0.001739535589664195</v>
+      </c>
+      <c r="C72" t="n">
+        <v>3.796792322148702e-05</v>
+      </c>
+      <c r="D72" t="n">
+        <v>19.11398497530641</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.003975398890758042</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3.185664162551068</v>
       </c>
     </row>
     <row r="73">
@@ -946,7 +1818,19 @@
         <v>4.5498</v>
       </c>
       <c r="B73" t="n">
-        <v>0.002203110884462791</v>
+        <v>0.002208407184529758</v>
+      </c>
+      <c r="C73" t="n">
+        <v>4.364086179816743e-05</v>
+      </c>
+      <c r="D73" t="n">
+        <v>4.504971079683558</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.6086762372104215</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.750828513280593</v>
       </c>
     </row>
     <row r="74">
@@ -954,7 +1838,19 @@
         <v>4.56018</v>
       </c>
       <c r="B74" t="n">
-        <v>0.003271598468944357</v>
+        <v>0.003280326288029901</v>
+      </c>
+      <c r="C74" t="n">
+        <v>6.609412481791473e-05</v>
+      </c>
+      <c r="D74" t="n">
+        <v>4.608866461791407</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.5948635424750568</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.7681444102985678</v>
       </c>
     </row>
     <row r="75">
@@ -962,7 +1858,19 @@
         <v>4.570130000000001</v>
       </c>
       <c r="B75" t="n">
-        <v>0.002994653018623842</v>
+        <v>0.003006553937894863</v>
+      </c>
+      <c r="C75" t="n">
+        <v>6.101569861042428e-05</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5.513710874531397</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.4798011104975363</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.9189518124218995</v>
       </c>
     </row>
     <row r="76">
@@ -970,7 +1878,19 @@
         <v>4.580030000000001</v>
       </c>
       <c r="B76" t="n">
-        <v>0.001528906135405152</v>
+        <v>0.001533426106037461</v>
+      </c>
+      <c r="C76" t="n">
+        <v>3.292320025257809e-05</v>
+      </c>
+      <c r="D76" t="n">
+        <v>5.989077509264101</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.4244147414145595</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.9981795848773501</v>
       </c>
     </row>
     <row r="77">
@@ -978,7 +1898,19 @@
         <v>4.59008</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0008191297658216223</v>
+        <v>0.0008210100519773168</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1.750874938738133e-05</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2.692676519950509</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.8463115585014934</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.4487794199917515</v>
       </c>
     </row>
     <row r="78">
@@ -986,7 +1918,19 @@
         <v>4.60027</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0006863585975548287</v>
+        <v>0.0006901842893624527</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1.506606645744391e-05</v>
+      </c>
+      <c r="D78" t="n">
+        <v>13.57089653517488</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.0348145722120351</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2.261816089195813</v>
       </c>
     </row>
     <row r="79">
@@ -994,7 +1938,19 @@
         <v>4.60999</v>
       </c>
       <c r="B79" t="n">
-        <v>0.001529206861182319</v>
+        <v>0.001563486069997592</v>
+      </c>
+      <c r="C79" t="n">
+        <v>3.295589348120807e-05</v>
+      </c>
+      <c r="D79" t="n">
+        <v>35.04722261610122</v>
+      </c>
+      <c r="E79" t="n">
+        <v>4.219660345805565e-06</v>
+      </c>
+      <c r="F79" t="n">
+        <v>5.841203769350202</v>
       </c>
     </row>
     <row r="80">
@@ -1002,7 +1958,19 @@
         <v>4.62023</v>
       </c>
       <c r="B80" t="n">
-        <v>0.001710719524911341</v>
+        <v>0.001757761029741621</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3.811257269774959e-05</v>
+      </c>
+      <c r="D80" t="n">
+        <v>41.64130919326728</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2.164319188313613e-07</v>
+      </c>
+      <c r="F80" t="n">
+        <v>6.940218198877879</v>
       </c>
     </row>
     <row r="81">
@@ -1010,7 +1978,19 @@
         <v>4.62994</v>
       </c>
       <c r="B81" t="n">
-        <v>0.001223761198050384</v>
+        <v>0.001271482782412359</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2.712142580661848e-05</v>
+      </c>
+      <c r="D81" t="n">
+        <v>57.111636289298</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1.734277166320908e-10</v>
+      </c>
+      <c r="F81" t="n">
+        <v>9.518606048216334</v>
       </c>
     </row>
     <row r="82">
@@ -1018,7 +1998,19 @@
         <v>4.63517</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0006647805743634496</v>
+        <v>0.000676927940751706</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.488276211805849e-05</v>
+      </c>
+      <c r="D82" t="n">
+        <v>30.95016611449918</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2.591069990165451e-05</v>
+      </c>
+      <c r="F82" t="n">
+        <v>5.158361019083197</v>
       </c>
     </row>
     <row r="83">
@@ -1026,7 +2018,19 @@
         <v>4.639959999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0003954719894288487</v>
+        <v>0.0003998175666759028</v>
+      </c>
+      <c r="C83" t="n">
+        <v>8.938236329048048e-06</v>
+      </c>
+      <c r="D83" t="n">
+        <v>20.1012628462449</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.002656760092685562</v>
+      </c>
+      <c r="F83" t="n">
+        <v>3.350210474374149</v>
       </c>
     </row>
     <row r="84">
@@ -1034,7 +2038,19 @@
         <v>4.64996</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0003288703316096743</v>
+        <v>0.0003300738726379792</v>
+      </c>
+      <c r="C84" t="n">
+        <v>7.403442881250198e-06</v>
+      </c>
+      <c r="D84" t="n">
+        <v>12.71564408406304</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.04778046823351212</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2.119274014010506</v>
       </c>
     </row>
     <row r="85">
@@ -1042,7 +2058,19 @@
         <v>4.67012</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0001700847591978455</v>
+        <v>0.0001708306002929038</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3.912716598160072e-06</v>
+      </c>
+      <c r="D85" t="n">
+        <v>9.590298659679302</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.142999745931728</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.59838310994655</v>
       </c>
     </row>
     <row r="86">
@@ -1050,7 +2078,19 @@
         <v>4.68015</v>
       </c>
       <c r="B86" t="n">
-        <v>8.954586699627425e-05</v>
+        <v>9.003254193659764e-05</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2.199233140054809e-06</v>
+      </c>
+      <c r="D86" t="n">
+        <v>11.9218291111638</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.06373559448194011</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1.9869715185273</v>
       </c>
     </row>
     <row r="87">
@@ -1058,7 +2098,19 @@
         <v>4.68993</v>
       </c>
       <c r="B87" t="n">
-        <v>6.857568606806502e-05</v>
+        <v>6.88359659691572e-05</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1.683844185647899e-06</v>
+      </c>
+      <c r="D87" t="n">
+        <v>10.54140902470923</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.1036266194868285</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1.756901504118205</v>
       </c>
     </row>
     <row r="88">
@@ -1066,7 +2118,19 @@
         <v>4.71002</v>
       </c>
       <c r="B88" t="n">
-        <v>5.544958768115737e-05</v>
+        <v>5.562161207559265e-05</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.293151615558588e-06</v>
+      </c>
+      <c r="D88" t="n">
+        <v>8.006748447365174</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.2376093139973908</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.334458074560862</v>
       </c>
     </row>
     <row r="89">
@@ -1074,7 +2138,19 @@
         <v>4.73</v>
       </c>
       <c r="B89" t="n">
-        <v>5.103935832678445e-05</v>
+        <v>5.138486794467081e-05</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.289472329475195e-06</v>
+      </c>
+      <c r="D89" t="n">
+        <v>13.21819289719311</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.03969894867180157</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2.203032149532186</v>
       </c>
     </row>
     <row r="90">
@@ -1082,7 +2158,19 @@
         <v>4.75</v>
       </c>
       <c r="B90" t="n">
-        <v>7.010553651304865e-05</v>
+        <v>7.045459096210212e-05</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.757931677447404e-06</v>
+      </c>
+      <c r="D90" t="n">
+        <v>13.70559331244622</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.0331034367257419</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2.284265552074369</v>
       </c>
     </row>
     <row r="91">
@@ -1090,7 +2178,19 @@
         <v>4.75518</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0001246019247173793</v>
+        <v>0.0001252124317732036</v>
+      </c>
+      <c r="C91" t="n">
+        <v>3.113564775849182e-06</v>
+      </c>
+      <c r="D91" t="n">
+        <v>12.72678409446145</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.04758573214980943</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2.121130682410242</v>
       </c>
     </row>
     <row r="92">
@@ -1098,7 +2198,19 @@
         <v>4.75888</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0001415538687289482</v>
+        <v>0.0001417225642261847</v>
+      </c>
+      <c r="C92" t="n">
+        <v>3.423457512243422e-06</v>
+      </c>
+      <c r="D92" t="n">
+        <v>7.776288446800464</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.2549554529811195</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1.296048074466744</v>
       </c>
     </row>
     <row r="93">
@@ -1106,7 +2218,19 @@
         <v>4.77004</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0001730759653280228</v>
+        <v>0.0001736891992588777</v>
+      </c>
+      <c r="C93" t="n">
+        <v>4.121634856598479e-06</v>
+      </c>
+      <c r="D93" t="n">
+        <v>12.71835891454357</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.04773294232757286</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2.119726485757262</v>
       </c>
     </row>
     <row r="94">
@@ -1114,7 +2238,19 @@
         <v>4.77502</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0002613922866441069</v>
+        <v>0.0002633937267590685</v>
+      </c>
+      <c r="C94" t="n">
+        <v>6.009931371885154e-06</v>
+      </c>
+      <c r="D94" t="n">
+        <v>17.02433083403097</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.009194239640915147</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2.837388472338494</v>
       </c>
     </row>
     <row r="95">
@@ -1122,7 +2258,19 @@
         <v>4.780180000000001</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0005430865741358437</v>
+        <v>0.0005555019510504637</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1.251846850340585e-05</v>
+      </c>
+      <c r="D95" t="n">
+        <v>38.2913818443337</v>
+      </c>
+      <c r="E95" t="n">
+        <v>9.852244724495307e-07</v>
+      </c>
+      <c r="F95" t="n">
+        <v>6.381896974055617</v>
       </c>
     </row>
     <row r="96">
@@ -1130,7 +2278,19 @@
         <v>4.79012</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0006855609507408336</v>
+        <v>0.0007009979735347338</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1.514739648014164e-05</v>
+      </c>
+      <c r="D96" t="n">
+        <v>36.1803042690853</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2.542878433264839e-06</v>
+      </c>
+      <c r="F96" t="n">
+        <v>6.030050711514217</v>
       </c>
     </row>
     <row r="97">
@@ -1138,7 +2298,19 @@
         <v>4.799919999999999</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0005660328474476059</v>
+        <v>0.0005766781412180182</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1.241624921554062e-05</v>
+      </c>
+      <c r="D97" t="n">
+        <v>28.40876683534776</v>
+      </c>
+      <c r="E97" t="n">
+        <v>7.868589607396004e-05</v>
+      </c>
+      <c r="F97" t="n">
+        <v>4.734794472557961</v>
       </c>
     </row>
     <row r="98">
@@ -1146,7 +2318,19 @@
         <v>4.81003</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0002730614361293767</v>
+        <v>0.0002786687698106014</v>
+      </c>
+      <c r="C98" t="n">
+        <v>6.573819511746596e-06</v>
+      </c>
+      <c r="D98" t="n">
+        <v>31.09977491186031</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2.426121196863473e-05</v>
+      </c>
+      <c r="F98" t="n">
+        <v>5.183295818643384</v>
       </c>
     </row>
     <row r="99">
@@ -1154,7 +2338,19 @@
         <v>4.81216</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0001317903620725381</v>
+        <v>0.0001344037869748944</v>
+      </c>
+      <c r="C99" t="n">
+        <v>3.375566346548514e-06</v>
+      </c>
+      <c r="D99" t="n">
+        <v>29.0833009334807</v>
+      </c>
+      <c r="E99" t="n">
+        <v>5.866782845820318e-05</v>
+      </c>
+      <c r="F99" t="n">
+        <v>4.847216822246784</v>
       </c>
     </row>
     <row r="100">
@@ -1162,7 +2358,19 @@
         <v>4.81527</v>
       </c>
       <c r="B100" t="n">
-        <v>8.168808861996572e-05</v>
+        <v>8.354537612490578e-05</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2.145158263101723e-06</v>
+      </c>
+      <c r="D100" t="n">
+        <v>34.1378165089673</v>
+      </c>
+      <c r="E100" t="n">
+        <v>6.327459012966941e-06</v>
+      </c>
+      <c r="F100" t="n">
+        <v>5.689636084827884</v>
       </c>
     </row>
     <row r="101">
@@ -1170,7 +2378,19 @@
         <v>4.82006</v>
       </c>
       <c r="B101" t="n">
-        <v>4.420770157104158e-05</v>
+        <v>4.498978215424025e-05</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1.209846427204611e-06</v>
+      </c>
+      <c r="D101" t="n">
+        <v>21.66389540519915</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.00139289557570077</v>
+      </c>
+      <c r="F101" t="n">
+        <v>3.610649234199858</v>
       </c>
     </row>
     <row r="102">
@@ -1178,7 +2398,19 @@
         <v>4.82989</v>
       </c>
       <c r="B102" t="n">
-        <v>2.853296137550284e-05</v>
+        <v>2.877272943036217e-05</v>
+      </c>
+      <c r="C102" t="n">
+        <v>7.630084251879666e-07</v>
+      </c>
+      <c r="D102" t="n">
+        <v>7.995184095678894</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.238456343450717</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1.332530682613149</v>
       </c>
     </row>
     <row r="103">
@@ -1186,7 +2418,19 @@
         <v>4.85003</v>
       </c>
       <c r="B103" t="n">
-        <v>2.075253811295791e-05</v>
+        <v>2.089328777708253e-05</v>
+      </c>
+      <c r="C103" t="n">
+        <v>6.215052079020976e-07</v>
+      </c>
+      <c r="D103" t="n">
+        <v>13.04555367263674</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.04231822761593595</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2.174258945439457</v>
       </c>
     </row>
     <row r="104">
@@ -1194,7 +2438,19 @@
         <v>4.86629</v>
       </c>
       <c r="B104" t="n">
-        <v>2.044192350790608e-05</v>
+        <v>2.068753588966541e-05</v>
+      </c>
+      <c r="C104" t="n">
+        <v>6.542735885282897e-07</v>
+      </c>
+      <c r="D104" t="n">
+        <v>13.53883074882082</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.03523405397595458</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2.256471791470137</v>
       </c>
     </row>
     <row r="105">
@@ -1202,7 +2458,19 @@
         <v>4.88989</v>
       </c>
       <c r="B105" t="n">
-        <v>2.326720373619541e-05</v>
+        <v>2.375792854921383e-05</v>
+      </c>
+      <c r="C105" t="n">
+        <v>6.44625830362909e-07</v>
+      </c>
+      <c r="D105" t="n">
+        <v>21.75720370726233</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.001339833828813308</v>
+      </c>
+      <c r="F105" t="n">
+        <v>3.626200617877055</v>
       </c>
     </row>
     <row r="106">
@@ -1210,7 +2478,19 @@
         <v>4.89991</v>
       </c>
       <c r="B106" t="n">
-        <v>4.328886247327282e-05</v>
+        <v>4.323374892582875e-05</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1.18212028785099e-06</v>
+      </c>
+      <c r="D106" t="n">
+        <v>4.211863811133687</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.6480298704025955</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.7019773018556146</v>
       </c>
     </row>
     <row r="107">
@@ -1218,7 +2498,19 @@
         <v>4.910130000000001</v>
       </c>
       <c r="B107" t="n">
-        <v>6.17759096642816e-05</v>
+        <v>6.180757878557916e-05</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1.489689712884149e-06</v>
+      </c>
+      <c r="D107" t="n">
+        <v>3.245230488236019</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.7774979231927641</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.5408717480393366</v>
       </c>
     </row>
     <row r="108">
@@ -1226,7 +2518,19 @@
         <v>4.91996</v>
       </c>
       <c r="B108" t="n">
-        <v>7.631098066255978e-05</v>
+        <v>7.672434206503063e-05</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1.877061267223778e-06</v>
+      </c>
+      <c r="D108" t="n">
+        <v>4.246321080381684</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.6433813248821336</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.707720180063614</v>
       </c>
     </row>
     <row r="109">
@@ -1234,7 +2538,19 @@
         <v>4.92615</v>
       </c>
       <c r="B109" t="n">
-        <v>7.95917653674464e-05</v>
+        <v>7.967621235137886e-05</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1.757058506528858e-06</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.416254515280386</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.9648621709325093</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.2360424192133976</v>
       </c>
     </row>
     <row r="110">
@@ -1242,7 +2558,19 @@
         <v>4.930190000000001</v>
       </c>
       <c r="B110" t="n">
-        <v>8.094832454033132e-05</v>
+        <v>8.10510789669452e-05</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1.926720446283663e-06</v>
+      </c>
+      <c r="D110" t="n">
+        <v>4.7465223353081</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.5767100379920553</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.7910870558846833</v>
       </c>
     </row>
     <row r="111">
@@ -1250,7 +2578,19 @@
         <v>4.93692</v>
       </c>
       <c r="B111" t="n">
-        <v>7.867507052352819e-05</v>
+        <v>7.883208836165185e-05</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.75432708403743e-06</v>
+      </c>
+      <c r="D111" t="n">
+        <v>6.678910286277144</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.3515643676125584</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1.113151714379524</v>
       </c>
     </row>
     <row r="112">
@@ -1258,7 +2598,19 @@
         <v>4.94675</v>
       </c>
       <c r="B112" t="n">
-        <v>8.13593530236892e-05</v>
+        <v>8.159241531670373e-05</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.816038009886793e-06</v>
+      </c>
+      <c r="D112" t="n">
+        <v>6.658436131113452</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.3535924278659504</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1.109739355185575</v>
       </c>
     </row>
     <row r="113">
@@ -1266,7 +2618,19 @@
         <v>4.95027</v>
       </c>
       <c r="B113" t="n">
-        <v>8.246313953509939e-05</v>
+        <v>8.27828573337391e-05</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1.978400801254665e-06</v>
+      </c>
+      <c r="D113" t="n">
+        <v>12.68916326022078</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.04824636827672057</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2.11486054337013</v>
       </c>
     </row>
     <row r="114">
@@ -1274,7 +2638,19 @@
         <v>4.95676</v>
       </c>
       <c r="B114" t="n">
-        <v>8.745834112204073e-05</v>
+        <v>8.770436407934997e-05</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.95593395867788e-06</v>
+      </c>
+      <c r="D114" t="n">
+        <v>5.095083903973592</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.5316771036238388</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.8491806506622653</v>
       </c>
     </row>
     <row r="115">
@@ -1282,7 +2658,19 @@
         <v>4.961869999999999</v>
       </c>
       <c r="B115" t="n">
-        <v>9.220587067862471e-05</v>
+        <v>9.264822736787892e-05</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2.047175667725759e-06</v>
+      </c>
+      <c r="D115" t="n">
+        <v>9.391164758191625</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.1527447609508021</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1.565194126365271</v>
       </c>
     </row>
     <row r="116">
@@ -1290,7 +2678,19 @@
         <v>4.96475</v>
       </c>
       <c r="B116" t="n">
-        <v>9.687335798169838e-05</v>
+        <v>9.714051181549742e-05</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2.158712474891136e-06</v>
+      </c>
+      <c r="D116" t="n">
+        <v>6.89144745260724</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.3310029266258822</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1.14857457543454</v>
       </c>
     </row>
     <row r="117">
@@ -1298,7 +2698,19 @@
         <v>4.96787</v>
       </c>
       <c r="B117" t="n">
-        <v>9.809604565177405e-05</v>
+        <v>9.87937486945728e-05</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2.21419822942156e-06</v>
+      </c>
+      <c r="D117" t="n">
+        <v>13.45711811630997</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.03632467067981959</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2.242853019384996</v>
       </c>
     </row>
     <row r="118">
@@ -1306,7 +2718,19 @@
         <v>4.97004</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0001023097988545751</v>
+        <v>0.0001028804870622522</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2.413905071773646e-06</v>
+      </c>
+      <c r="D118" t="n">
+        <v>15.11748846566707</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.01936234041969798</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2.519581410944511</v>
       </c>
     </row>
     <row r="119">
@@ -1314,7 +2738,19 @@
         <v>4.9728</v>
       </c>
       <c r="B119" t="n">
-        <v>9.970799933963117e-05</v>
+        <v>0.0001007806213523682</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2.164220840726684e-06</v>
+      </c>
+      <c r="D119" t="n">
+        <v>18.00508236989312</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.006219506561131016</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3.000847061648853</v>
       </c>
     </row>
     <row r="120">
@@ -1322,7 +2758,19 @@
         <v>4.97463</v>
       </c>
       <c r="B120" t="n">
-        <v>9.924322229644736e-05</v>
+        <v>0.0001000250391065159</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2.239824518892688e-06</v>
+      </c>
+      <c r="D120" t="n">
+        <v>14.33872568260606</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.02607298711208905</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2.389787613767677</v>
       </c>
     </row>
     <row r="121">
@@ -1330,7 +2778,19 @@
         <v>4.98471</v>
       </c>
       <c r="B121" t="n">
-        <v>8.285778635910543e-05</v>
+        <v>8.324432502526596e-05</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1.868630496336054e-06</v>
+      </c>
+      <c r="D121" t="n">
+        <v>9.974275260902767</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.1257395326407555</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1.662379210150461</v>
       </c>
     </row>
     <row r="122">
@@ -1338,7 +2798,19 @@
         <v>4.990069999999999</v>
       </c>
       <c r="B122" t="n">
-        <v>8.078911855727504e-05</v>
+        <v>8.192552516103994e-05</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1.978805131405096e-06</v>
+      </c>
+      <c r="D122" t="n">
+        <v>19.90046827552086</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.002884642014147065</v>
+      </c>
+      <c r="F122" t="n">
+        <v>3.316744712586809</v>
       </c>
     </row>
     <row r="123">
@@ -1346,7 +2818,19 @@
         <v>4.994669999999999</v>
       </c>
       <c r="B123" t="n">
-        <v>6.460765966229453e-05</v>
+        <v>6.508255297947236e-05</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1.500396829674327e-06</v>
+      </c>
+      <c r="D123" t="n">
+        <v>13.59409146553994</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.03451408074597151</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2.265681910923324</v>
       </c>
     </row>
     <row r="124">
@@ -1354,7 +2838,19 @@
         <v>5.00464</v>
       </c>
       <c r="B124" t="n">
-        <v>5.134917970593211e-05</v>
+        <v>5.151671450670352e-05</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1.190576915686123e-06</v>
+      </c>
+      <c r="D124" t="n">
+        <v>6.985732733255109</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.322168645518722</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1.164288788875852</v>
       </c>
     </row>
     <row r="125">
@@ -1362,7 +2858,19 @@
         <v>5.00999</v>
       </c>
       <c r="B125" t="n">
-        <v>5.535573136203183e-05</v>
+        <v>5.551142812233864e-05</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1.45676404907325e-06</v>
+      </c>
+      <c r="D125" t="n">
+        <v>8.67654263701915</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.1926028144375155</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1.446090439503192</v>
       </c>
     </row>
     <row r="126">
@@ -1370,7 +2878,19 @@
         <v>5.01484</v>
       </c>
       <c r="B126" t="n">
-        <v>6.959945107351996e-05</v>
+        <v>7.045960076662709e-05</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1.647414559904416e-06</v>
+      </c>
+      <c r="D126" t="n">
+        <v>21.63877542071552</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.001407528895398302</v>
+      </c>
+      <c r="F126" t="n">
+        <v>3.606462570119254</v>
       </c>
     </row>
     <row r="127">
@@ -1378,7 +2898,19 @@
         <v>5.01774</v>
       </c>
       <c r="B127" t="n">
-        <v>9.481083938549816e-05</v>
+        <v>9.570300194425803e-05</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2.15699118035848e-06</v>
+      </c>
+      <c r="D127" t="n">
+        <v>16.60222292212483</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.01086185832720521</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2.767037153687472</v>
       </c>
     </row>
     <row r="128">
@@ -1386,7 +2918,19 @@
         <v>5.01786</v>
       </c>
       <c r="B128" t="n">
-        <v>9.11820543398175e-05</v>
+        <v>9.166188872963791e-05</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2.057437302008031e-06</v>
+      </c>
+      <c r="D128" t="n">
+        <v>9.080317151556569</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.1691112233221671</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1.513386191926095</v>
       </c>
     </row>
     <row r="129">
@@ -1394,7 +2938,19 @@
         <v>5.019819999999999</v>
       </c>
       <c r="B129" t="n">
-        <v>0.000147370184174936</v>
+        <v>0.0001488939187180387</v>
+      </c>
+      <c r="C129" t="n">
+        <v>3.311531083320219e-06</v>
+      </c>
+      <c r="D129" t="n">
+        <v>18.05399445360102</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.006098667549756853</v>
+      </c>
+      <c r="F129" t="n">
+        <v>3.00899907560017</v>
       </c>
     </row>
     <row r="130">
@@ -1402,7 +2958,19 @@
         <v>5.0248</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0002684699153000679</v>
+        <v>0.0002711365398624544</v>
+      </c>
+      <c r="C130" t="n">
+        <v>6.046480787099696e-06</v>
+      </c>
+      <c r="D130" t="n">
+        <v>15.95437662777662</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.01400095283832548</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2.659062771296103</v>
       </c>
     </row>
     <row r="131">
@@ -1410,7 +2978,19 @@
         <v>5.027830000000001</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0002953974749505708</v>
+        <v>0.0002983841156841332</v>
+      </c>
+      <c r="C131" t="n">
+        <v>6.750449719305634e-06</v>
+      </c>
+      <c r="D131" t="n">
+        <v>15.99024012311214</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.01380644890140204</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2.66504002051869</v>
       </c>
     </row>
     <row r="132">
@@ -1418,7 +2998,19 @@
         <v>5.0301</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0003158047471534676</v>
+        <v>0.0003199846700227824</v>
+      </c>
+      <c r="C132" t="n">
+        <v>7.411552633874463e-06</v>
+      </c>
+      <c r="D132" t="n">
+        <v>23.31140059878888</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.0006986169687445143</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3.885233433131479</v>
       </c>
     </row>
     <row r="133">
@@ -1426,7 +3018,19 @@
         <v>5.032780000000001</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0003538781556928781</v>
+        <v>0.0003596397169062209</v>
+      </c>
+      <c r="C133" t="n">
+        <v>7.901802222950259e-06</v>
+      </c>
+      <c r="D133" t="n">
+        <v>22.79060061761867</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.0008697321935988711</v>
+      </c>
+      <c r="F133" t="n">
+        <v>3.798433436269779</v>
       </c>
     </row>
     <row r="134">
@@ -1434,7 +3038,19 @@
         <v>5.0359</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0004062525930562701</v>
+        <v>0.0004107888570524585</v>
+      </c>
+      <c r="C134" t="n">
+        <v>8.853459329491031e-06</v>
+      </c>
+      <c r="D134" t="n">
+        <v>17.80649198843543</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.006734422017029895</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2.967748664739238</v>
       </c>
     </row>
     <row r="135">
@@ -1442,7 +3058,19 @@
         <v>5.03871</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0004244477704763954</v>
+        <v>0.0004309544150551839</v>
+      </c>
+      <c r="C135" t="n">
+        <v>9.27860043960173e-06</v>
+      </c>
+      <c r="D135" t="n">
+        <v>22.1689809027109</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.001128385313841296</v>
+      </c>
+      <c r="F135" t="n">
+        <v>3.694830150451817</v>
       </c>
     </row>
     <row r="136">
@@ -1450,7 +3078,19 @@
         <v>5.041980000000001</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0004127389547255729</v>
+        <v>0.0004201097609343093</v>
+      </c>
+      <c r="C136" t="n">
+        <v>9.279745126261194e-06</v>
+      </c>
+      <c r="D136" t="n">
+        <v>26.03128857498081</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.0002196741129502078</v>
+      </c>
+      <c r="F136" t="n">
+        <v>4.338548095830134</v>
       </c>
     </row>
     <row r="137">
@@ -1458,7 +3098,19 @@
         <v>5.04479</v>
       </c>
       <c r="B137" t="n">
-        <v>0.000376947210711454</v>
+        <v>0.0003822008847516125</v>
+      </c>
+      <c r="C137" t="n">
+        <v>8.38096819909398e-06</v>
+      </c>
+      <c r="D137" t="n">
+        <v>21.89679434370216</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.001264131530226642</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3.64946572395036</v>
       </c>
     </row>
     <row r="138">
@@ -1466,7 +3118,19 @@
         <v>5.04997</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0002981302213590788</v>
+        <v>0.0003058048446119095</v>
+      </c>
+      <c r="C138" t="n">
+        <v>6.962581229347503e-06</v>
+      </c>
+      <c r="D138" t="n">
+        <v>37.97102311467381</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.138108296494522e-06</v>
+      </c>
+      <c r="F138" t="n">
+        <v>6.328503852445635</v>
       </c>
     </row>
     <row r="139">
@@ -1474,7 +3138,19 @@
         <v>5.05484</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0002119884486337385</v>
+        <v>0.0002169960073962664</v>
+      </c>
+      <c r="C139" t="n">
+        <v>4.914584314508475e-06</v>
+      </c>
+      <c r="D139" t="n">
+        <v>37.09474783364849</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.687562298680056e-06</v>
+      </c>
+      <c r="F139" t="n">
+        <v>6.182457972274748</v>
       </c>
     </row>
     <row r="140">
@@ -1482,7 +3158,19 @@
         <v>5.06488</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0001445488238186714</v>
+        <v>0.0001470513088769697</v>
+      </c>
+      <c r="C140" t="n">
+        <v>3.466387985369391e-06</v>
+      </c>
+      <c r="D140" t="n">
+        <v>24.0033165658883</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.0005215249600200034</v>
+      </c>
+      <c r="F140" t="n">
+        <v>4.000552760981384</v>
       </c>
     </row>
     <row r="141">
@@ -1490,7 +3178,19 @@
         <v>5.06991</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0001184549482942894</v>
+        <v>0.0001208381482264112</v>
+      </c>
+      <c r="C141" t="n">
+        <v>3.087270646637842e-06</v>
+      </c>
+      <c r="D141" t="n">
+        <v>25.42420789761758</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.0002848953024341405</v>
+      </c>
+      <c r="F141" t="n">
+        <v>4.237367982936264</v>
       </c>
     </row>
     <row r="142">
@@ -1498,7 +3198,19 @@
         <v>5.07448</v>
       </c>
       <c r="B142" t="n">
-        <v>9.544612840796043e-05</v>
+        <v>9.728190341178606e-05</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2.345606672832431e-06</v>
+      </c>
+      <c r="D142" t="n">
+        <v>26.00458274593092</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.0002222052233098459</v>
+      </c>
+      <c r="F142" t="n">
+        <v>4.334097124321819</v>
       </c>
     </row>
     <row r="143">
@@ -1506,7 +3218,19 @@
         <v>5.08419</v>
       </c>
       <c r="B143" t="n">
-        <v>8.21703449078971e-05</v>
+        <v>8.366675711518116e-05</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2.166863207800914e-06</v>
+      </c>
+      <c r="D143" t="n">
+        <v>25.83263336766207</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.0002392050230960452</v>
+      </c>
+      <c r="F143" t="n">
+        <v>4.305438894610345</v>
       </c>
     </row>
     <row r="144">
@@ -1514,7 +3238,19 @@
         <v>5.08999</v>
       </c>
       <c r="B144" t="n">
-        <v>9.17125766622813e-05</v>
+        <v>9.319010222962622e-05</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2.428430604815229e-06</v>
+      </c>
+      <c r="D144" t="n">
+        <v>21.44648049573285</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.001524648882572421</v>
+      </c>
+      <c r="F144" t="n">
+        <v>3.574413415955475</v>
       </c>
     </row>
     <row r="145">
@@ -1522,7 +3258,19 @@
         <v>5.093719999999999</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0003308970850430969</v>
+        <v>0.0003398413690434575</v>
+      </c>
+      <c r="C145" t="n">
+        <v>7.87277130693561e-06</v>
+      </c>
+      <c r="D145" t="n">
+        <v>37.30823706298009</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1.533272114717654e-06</v>
+      </c>
+      <c r="F145" t="n">
+        <v>6.218039510496681</v>
       </c>
     </row>
     <row r="146">
@@ -1530,7 +3278,19 @@
         <v>5.09676</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0006294896714287465</v>
+        <v>0.000648287060923842</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1.346919912622584e-05</v>
+      </c>
+      <c r="D146" t="n">
+        <v>44.3340179257523</v>
+      </c>
+      <c r="E146" t="n">
+        <v>6.346126002476637e-08</v>
+      </c>
+      <c r="F146" t="n">
+        <v>7.389002987625383</v>
       </c>
     </row>
     <row r="147">
@@ -1538,7 +3298,19 @@
         <v>5.09889</v>
       </c>
       <c r="B147" t="n">
-        <v>0.000702874349885149</v>
+        <v>0.0007227046359032294</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.531549132566002e-05</v>
+      </c>
+      <c r="D147" t="n">
+        <v>41.94127053062826</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1.888525388293871e-07</v>
+      </c>
+      <c r="F147" t="n">
+        <v>6.99021175510471</v>
       </c>
     </row>
     <row r="148">
@@ -1546,7 +3318,19 @@
         <v>5.09999</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0007380604048699566</v>
+        <v>0.0007587121053227192</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1.626979011066517e-05</v>
+      </c>
+      <c r="D148" t="n">
+        <v>40.9965904352342</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2.90014828818741e-07</v>
+      </c>
+      <c r="F148" t="n">
+        <v>6.832765072539033</v>
       </c>
     </row>
     <row r="149">
@@ -1554,7 +3338,19 @@
         <v>5.10043</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0007242643029807078</v>
+        <v>0.0007430022314835083</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.591776732261522e-05</v>
+      </c>
+      <c r="D149" t="n">
+        <v>38.82704324801426</v>
+      </c>
+      <c r="E149" t="n">
+        <v>7.738583985839043e-07</v>
+      </c>
+      <c r="F149" t="n">
+        <v>6.471173874669042</v>
       </c>
     </row>
     <row r="150">
@@ -1562,7 +3358,19 @@
         <v>5.100709999999999</v>
       </c>
       <c r="B150" t="n">
-        <v>0.000721812970441624</v>
+        <v>0.0007396729874553099</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1.581933222805539e-05</v>
+      </c>
+      <c r="D150" t="n">
+        <v>35.89607289469362</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2.887840447884926e-06</v>
+      </c>
+      <c r="F150" t="n">
+        <v>5.982678815782269</v>
       </c>
     </row>
     <row r="151">
@@ -1570,7 +3378,19 @@
         <v>5.10288</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0008907228723060219</v>
+        <v>0.0009154872951004913</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1.937295670108345e-05</v>
+      </c>
+      <c r="D151" t="n">
+        <v>40.12146240815458</v>
+      </c>
+      <c r="E151" t="n">
+        <v>4.31151648938588e-07</v>
+      </c>
+      <c r="F151" t="n">
+        <v>6.686910401359097</v>
       </c>
     </row>
     <row r="152">
@@ -1578,7 +3398,19 @@
         <v>5.10486</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0009314451263869064</v>
+        <v>0.0009550652422591778</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2.001886368603988e-05</v>
+      </c>
+      <c r="D152" t="n">
+        <v>37.00089736589767</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1.760179724308308e-06</v>
+      </c>
+      <c r="F152" t="n">
+        <v>6.166816227649612</v>
       </c>
     </row>
     <row r="153">
@@ -1586,7 +3418,19 @@
         <v>5.1069</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0009361552856321987</v>
+        <v>0.0009568177821422457</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2.016475027520539e-05</v>
+      </c>
+      <c r="D153" t="n">
+        <v>33.42122204973047</v>
+      </c>
+      <c r="E153" t="n">
+        <v>8.699480352092337e-06</v>
+      </c>
+      <c r="F153" t="n">
+        <v>5.570203674955078</v>
       </c>
     </row>
     <row r="154">
@@ -1594,7 +3438,19 @@
         <v>5.10878</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0009354792617220596</v>
+        <v>0.0009673770818585885</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2.027000463022294e-05</v>
+      </c>
+      <c r="D154" t="n">
+        <v>50.60847461804288</v>
+      </c>
+      <c r="E154" t="n">
+        <v>3.549425087179259e-09</v>
+      </c>
+      <c r="F154" t="n">
+        <v>8.434745769673812</v>
       </c>
     </row>
     <row r="155">
@@ -1602,7 +3458,19 @@
         <v>5.110040000000001</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0009527831672989594</v>
+        <v>0.0009799685805017841</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2.064014090207171e-05</v>
+      </c>
+      <c r="D155" t="n">
+        <v>42.60861826362572</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1.394041708735472e-07</v>
+      </c>
+      <c r="F155" t="n">
+        <v>7.101436377270954</v>
       </c>
     </row>
     <row r="156">
@@ -1610,7 +3478,19 @@
         <v>5.11075</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0009394153783213508</v>
+        <v>0.0009625536522363268</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2.02432779136048e-05</v>
+      </c>
+      <c r="D156" t="n">
+        <v>36.48162465972239</v>
+      </c>
+      <c r="E156" t="n">
+        <v>2.221796081114391e-06</v>
+      </c>
+      <c r="F156" t="n">
+        <v>6.080270776620398</v>
       </c>
     </row>
     <row r="157">
@@ -1618,7 +3498,19 @@
         <v>5.11384</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0009236529938657094</v>
+        <v>0.0009452052048698329</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1.967455233903125e-05</v>
+      </c>
+      <c r="D157" t="n">
+        <v>34.69415665228537</v>
+      </c>
+      <c r="E157" t="n">
+        <v>4.939144227167347e-06</v>
+      </c>
+      <c r="F157" t="n">
+        <v>5.782359442047562</v>
       </c>
     </row>
     <row r="158">
@@ -1626,7 +3518,19 @@
         <v>5.1188</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0007727583238655801</v>
+        <v>0.0007921597588356728</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.635968174025162e-05</v>
+      </c>
+      <c r="D158" t="n">
+        <v>37.79196632404847</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.233602757055863e-06</v>
+      </c>
+      <c r="F158" t="n">
+        <v>6.298661054008078</v>
       </c>
     </row>
     <row r="159">
@@ -1634,7 +3538,19 @@
         <v>5.123769999999999</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0005664645813289094</v>
+        <v>0.0005804029657669613</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.254090357496591e-05</v>
+      </c>
+      <c r="D159" t="n">
+        <v>35.90310180596494</v>
+      </c>
+      <c r="E159" t="n">
+        <v>2.878773714964922e-06</v>
+      </c>
+      <c r="F159" t="n">
+        <v>5.983850300994156</v>
       </c>
     </row>
     <row r="160">
@@ -1642,7 +3558,19 @@
         <v>5.12852</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0004159137626658048</v>
+        <v>0.0004241515381068266</v>
+      </c>
+      <c r="C160" t="n">
+        <v>9.012349350359521e-06</v>
+      </c>
+      <c r="D160" t="n">
+        <v>31.29312957562425</v>
+      </c>
+      <c r="E160" t="n">
+        <v>2.228265439063737e-05</v>
+      </c>
+      <c r="F160" t="n">
+        <v>5.215521595937375</v>
       </c>
     </row>
     <row r="161">
@@ -1650,7 +3578,19 @@
         <v>5.12994</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0004338723856587155</v>
+        <v>0.0004462663362177779</v>
+      </c>
+      <c r="C161" t="n">
+        <v>9.819859415939715e-06</v>
+      </c>
+      <c r="D161" t="n">
+        <v>44.23897573816</v>
+      </c>
+      <c r="E161" t="n">
+        <v>6.627758097899061e-08</v>
+      </c>
+      <c r="F161" t="n">
+        <v>7.373162623026666</v>
       </c>
     </row>
     <row r="162">
@@ -1658,7 +3598,19 @@
         <v>5.13381</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0003340987319091952</v>
+        <v>0.0003425606239656424</v>
+      </c>
+      <c r="C162" t="n">
+        <v>7.371704889153658e-06</v>
+      </c>
+      <c r="D162" t="n">
+        <v>38.26267873372933</v>
+      </c>
+      <c r="E162" t="n">
+        <v>9.980459153569043e-07</v>
+      </c>
+      <c r="F162" t="n">
+        <v>6.377113122288222</v>
       </c>
     </row>
     <row r="163">
@@ -1666,7 +3618,19 @@
         <v>5.13888</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0003361913471742642</v>
+        <v>0.0003429911504563723</v>
+      </c>
+      <c r="C163" t="n">
+        <v>7.441418089352561e-06</v>
+      </c>
+      <c r="D163" t="n">
+        <v>31.68384181740837</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.875956728825123e-05</v>
+      </c>
+      <c r="F163" t="n">
+        <v>5.280640302901396</v>
       </c>
     </row>
     <row r="164">
@@ -1674,7 +3638,19 @@
         <v>5.14165</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0003203935613053845</v>
+        <v>0.0003285928657215281</v>
+      </c>
+      <c r="C164" t="n">
+        <v>7.080818270154007e-06</v>
+      </c>
+      <c r="D164" t="n">
+        <v>38.72004036489956</v>
+      </c>
+      <c r="E164" t="n">
+        <v>8.121250274495395e-07</v>
+      </c>
+      <c r="F164" t="n">
+        <v>6.453340060816593</v>
       </c>
     </row>
     <row r="165">
@@ -1682,7 +3658,19 @@
         <v>5.144740000000001</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0002970358264822695</v>
+        <v>0.0003027377701345057</v>
+      </c>
+      <c r="C165" t="n">
+        <v>6.565936904939854e-06</v>
+      </c>
+      <c r="D165" t="n">
+        <v>29.27198622341381</v>
+      </c>
+      <c r="E165" t="n">
+        <v>5.403344359511397e-05</v>
+      </c>
+      <c r="F165" t="n">
+        <v>4.878664370568969</v>
       </c>
     </row>
     <row r="166">
@@ -1690,7 +3678,19 @@
         <v>5.14799</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0002749722334044492</v>
+        <v>0.0002800278754754092</v>
+      </c>
+      <c r="C166" t="n">
+        <v>6.21627722926483e-06</v>
+      </c>
+      <c r="D166" t="n">
+        <v>29.38644061747802</v>
+      </c>
+      <c r="E166" t="n">
+        <v>5.140075680898359e-05</v>
+      </c>
+      <c r="F166" t="n">
+        <v>4.897740102913002</v>
       </c>
     </row>
     <row r="167">
@@ -1698,7 +3698,19 @@
         <v>5.15001</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0002647671369016757</v>
+        <v>0.0002715075119917925</v>
+      </c>
+      <c r="C167" t="n">
+        <v>6.274735777015115e-06</v>
+      </c>
+      <c r="D167" t="n">
+        <v>37.83652850119557</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.20911748235919e-06</v>
+      </c>
+      <c r="F167" t="n">
+        <v>6.306088083532594</v>
       </c>
     </row>
     <row r="168">
@@ -1706,7 +3718,19 @@
         <v>5.150980000000001</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0002521927791807503</v>
+        <v>0.0002583148820207756</v>
+      </c>
+      <c r="C168" t="n">
+        <v>5.624580759549267e-06</v>
+      </c>
+      <c r="D168" t="n">
+        <v>34.82225682295442</v>
+      </c>
+      <c r="E168" t="n">
+        <v>4.665016228311281e-06</v>
+      </c>
+      <c r="F168" t="n">
+        <v>5.803709470492404</v>
       </c>
     </row>
     <row r="169">
@@ -1714,7 +3738,19 @@
         <v>5.15704</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0002138250886639293</v>
+        <v>0.000217224976000933</v>
+      </c>
+      <c r="C169" t="n">
+        <v>4.779350865421566e-06</v>
+      </c>
+      <c r="D169" t="n">
+        <v>25.96101920346267</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.000226395933602408</v>
+      </c>
+      <c r="F169" t="n">
+        <v>4.326836533910445</v>
       </c>
     </row>
     <row r="170">
@@ -1722,7 +3758,19 @@
         <v>5.15937</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0001919044065935614</v>
+        <v>0.0001958292793077626</v>
+      </c>
+      <c r="C170" t="n">
+        <v>4.26554877828793e-06</v>
+      </c>
+      <c r="D170" t="n">
+        <v>31.47248133360237</v>
+      </c>
+      <c r="E170" t="n">
+        <v>2.059069799009716e-05</v>
+      </c>
+      <c r="F170" t="n">
+        <v>5.245413555600396</v>
       </c>
     </row>
     <row r="171">
@@ -1730,7 +3778,19 @@
         <v>5.17005</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0001225036956357662</v>
+        <v>0.0001247184540451164</v>
+      </c>
+      <c r="C171" t="n">
+        <v>3.1184192468328e-06</v>
+      </c>
+      <c r="D171" t="n">
+        <v>27.10058888225118</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.0001386570605595994</v>
+      </c>
+      <c r="F171" t="n">
+        <v>4.516764813708531</v>
       </c>
     </row>
     <row r="172">
@@ -1738,7 +3798,19 @@
         <v>5.18984</v>
       </c>
       <c r="B172" t="n">
-        <v>9.091768253029481e-05</v>
+        <v>9.28068346951861e-05</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2.212965012095272e-06</v>
+      </c>
+      <c r="D172" t="n">
+        <v>28.53100704368467</v>
+      </c>
+      <c r="E172" t="n">
+        <v>7.461436780553665e-05</v>
+      </c>
+      <c r="F172" t="n">
+        <v>4.755167840614113</v>
       </c>
     </row>
     <row r="173">
@@ -1746,7 +3818,19 @@
         <v>5.210030000000001</v>
       </c>
       <c r="B173" t="n">
-        <v>9.881361073251814e-05</v>
+        <v>0.0001013625061108537</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2.502233235597901e-06</v>
+      </c>
+      <c r="D173" t="n">
+        <v>31.40730394750061</v>
+      </c>
+      <c r="E173" t="n">
+        <v>2.119030624880835e-05</v>
+      </c>
+      <c r="F173" t="n">
+        <v>5.234550657916769</v>
       </c>
     </row>
     <row r="174">
@@ -1754,7 +3838,19 @@
         <v>5.23003</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0001343753644139582</v>
+        <v>0.0001363833131431613</v>
+      </c>
+      <c r="C174" t="n">
+        <v>3.616104161390169e-06</v>
+      </c>
+      <c r="D174" t="n">
+        <v>17.73370313395899</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.00693331096689398</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2.955617188993165</v>
       </c>
     </row>
     <row r="175">
@@ -1762,7 +3858,19 @@
         <v>5.2395</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0001721561847219373</v>
+        <v>0.0001757891621389516</v>
+      </c>
+      <c r="C175" t="n">
+        <v>4.112452031206913e-06</v>
+      </c>
+      <c r="D175" t="n">
+        <v>31.40934830356822</v>
+      </c>
+      <c r="E175" t="n">
+        <v>2.117123870326587e-05</v>
+      </c>
+      <c r="F175" t="n">
+        <v>5.234891383928037</v>
       </c>
     </row>
     <row r="176">
@@ -1770,7 +3878,19 @@
         <v>5.24306</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0001905531089990262</v>
+        <v>0.0001936499852528843</v>
+      </c>
+      <c r="C176" t="n">
+        <v>5.076740147719287e-06</v>
+      </c>
+      <c r="D176" t="n">
+        <v>24.00596775694889</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.0005209396718812709</v>
+      </c>
+      <c r="F176" t="n">
+        <v>4.000994626158149</v>
       </c>
     </row>
     <row r="177">
@@ -1778,7 +3898,19 @@
         <v>5.25013</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0002652309885111997</v>
+        <v>0.0002684065674683814</v>
+      </c>
+      <c r="C177" t="n">
+        <v>7.287878763252065e-06</v>
+      </c>
+      <c r="D177" t="n">
+        <v>19.25390363551411</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.003755641017031963</v>
+      </c>
+      <c r="F177" t="n">
+        <v>3.208983939252352</v>
       </c>
     </row>
     <row r="178">
@@ -1786,7 +3918,19 @@
         <v>5.25994</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0003958253275049118</v>
+        <v>0.0004020612162150266</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1.000346414736083e-05</v>
+      </c>
+      <c r="D178" t="n">
+        <v>25.04824024854298</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.0003345028197583311</v>
+      </c>
+      <c r="F178" t="n">
+        <v>4.174706708090497</v>
       </c>
     </row>
     <row r="179">
@@ -1794,7 +3938,19 @@
         <v>5.26504</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0004666185082997995</v>
+        <v>0.0004724636155003034</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.212875036452284e-05</v>
+      </c>
+      <c r="D179" t="n">
+        <v>19.40414674687826</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.003532842632822941</v>
+      </c>
+      <c r="F179" t="n">
+        <v>3.234024457813044</v>
       </c>
     </row>
     <row r="180">
@@ -1802,7 +3958,19 @@
         <v>5.26998</v>
       </c>
       <c r="B180" t="n">
-        <v>0.000565507733519805</v>
+        <v>0.0005776612405362157</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1.421645750948625e-05</v>
+      </c>
+      <c r="D180" t="n">
+        <v>28.4662574692411</v>
+      </c>
+      <c r="E180" t="n">
+        <v>7.674436697446829e-05</v>
+      </c>
+      <c r="F180" t="n">
+        <v>4.744376244873517</v>
       </c>
     </row>
     <row r="181">
@@ -1810,7 +3978,19 @@
         <v>5.27496</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0007546106678930553</v>
+        <v>0.0007808798649715213</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1.835302878861224e-05</v>
+      </c>
+      <c r="D181" t="n">
+        <v>50.48319554738212</v>
+      </c>
+      <c r="E181" t="n">
+        <v>3.760920352924302e-09</v>
+      </c>
+      <c r="F181" t="n">
+        <v>8.413865924563686</v>
       </c>
     </row>
     <row r="182">
@@ -1818,7 +3998,19 @@
         <v>5.27502</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0007408702229971454</v>
+        <v>0.0007677007376968302</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1.662519265475947e-05</v>
+      </c>
+      <c r="D182" t="n">
+        <v>48.75869260086921</v>
+      </c>
+      <c r="E182" t="n">
+        <v>8.332762924112558e-09</v>
+      </c>
+      <c r="F182" t="n">
+        <v>8.126448766811535</v>
       </c>
     </row>
     <row r="183">
@@ -1826,7 +4018,19 @@
         <v>5.279809999999999</v>
       </c>
       <c r="B183" t="n">
-        <v>0.001138893930323797</v>
+        <v>0.001165004084630179</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2.660943053423062e-05</v>
+      </c>
+      <c r="D183" t="n">
+        <v>32.94460287939972</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1.074634778464034e-05</v>
+      </c>
+      <c r="F183" t="n">
+        <v>5.490767146566621</v>
       </c>
     </row>
     <row r="184">
@@ -1834,7 +4038,19 @@
         <v>5.28495</v>
       </c>
       <c r="B184" t="n">
-        <v>0.001455448718222261</v>
+        <v>0.001489201895327516</v>
+      </c>
+      <c r="C184" t="n">
+        <v>3.371694675441002e-05</v>
+      </c>
+      <c r="D184" t="n">
+        <v>36.11376057472798</v>
+      </c>
+      <c r="E184" t="n">
+        <v>2.619777237256038e-06</v>
+      </c>
+      <c r="F184" t="n">
+        <v>6.018960095787996</v>
       </c>
     </row>
     <row r="185">
@@ -1842,7 +4058,19 @@
         <v>5.29016</v>
       </c>
       <c r="B185" t="n">
-        <v>0.001895199336004149</v>
+        <v>0.001943520653058881</v>
+      </c>
+      <c r="C185" t="n">
+        <v>4.058187764145264e-05</v>
+      </c>
+      <c r="D185" t="n">
+        <v>39.49318707549098</v>
+      </c>
+      <c r="E185" t="n">
+        <v>5.728419574246857e-07</v>
+      </c>
+      <c r="F185" t="n">
+        <v>6.582197845915164</v>
       </c>
     </row>
     <row r="186">
@@ -1850,7 +4078,19 @@
         <v>5.29294</v>
       </c>
       <c r="B186" t="n">
-        <v>0.002191013746579093</v>
+        <v>0.002275579799306329</v>
+      </c>
+      <c r="C186" t="n">
+        <v>4.728034068440307e-05</v>
+      </c>
+      <c r="D186" t="n">
+        <v>55.20534289027712</v>
+      </c>
+      <c r="E186" t="n">
+        <v>4.213333015812282e-10</v>
+      </c>
+      <c r="F186" t="n">
+        <v>9.200890481712854</v>
       </c>
     </row>
     <row r="187">
@@ -1858,7 +4098,19 @@
         <v>5.29767</v>
       </c>
       <c r="B187" t="n">
-        <v>0.002147455210633701</v>
+        <v>0.002213492942424149</v>
+      </c>
+      <c r="C187" t="n">
+        <v>4.454752514447618e-05</v>
+      </c>
+      <c r="D187" t="n">
+        <v>47.93875195020159</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1.215384459740676e-08</v>
+      </c>
+      <c r="F187" t="n">
+        <v>7.989791991700265</v>
       </c>
     </row>
     <row r="188">
@@ -1866,7 +4118,19 @@
         <v>5.29972</v>
       </c>
       <c r="B188" t="n">
-        <v>0.002102138355397022</v>
+        <v>0.002173485404111664</v>
+      </c>
+      <c r="C188" t="n">
+        <v>4.433490803182472e-05</v>
+      </c>
+      <c r="D188" t="n">
+        <v>48.77989410263658</v>
+      </c>
+      <c r="E188" t="n">
+        <v>8.251774374912202e-09</v>
+      </c>
+      <c r="F188" t="n">
+        <v>8.129982350439429</v>
       </c>
     </row>
     <row r="189">
@@ -1874,7 +4138,19 @@
         <v>5.30238</v>
       </c>
       <c r="B189" t="n">
-        <v>0.001990759052767971</v>
+        <v>0.002050333167984425</v>
+      </c>
+      <c r="C189" t="n">
+        <v>4.213703517162631e-05</v>
+      </c>
+      <c r="D189" t="n">
+        <v>46.234637917676</v>
+      </c>
+      <c r="E189" t="n">
+        <v>2.658581776948665e-08</v>
+      </c>
+      <c r="F189" t="n">
+        <v>7.705772986279334</v>
       </c>
     </row>
     <row r="190">
@@ -1882,7 +4158,19 @@
         <v>5.30823</v>
       </c>
       <c r="B190" t="n">
-        <v>0.001723308408093737</v>
+        <v>0.001779250757941642</v>
+      </c>
+      <c r="C190" t="n">
+        <v>3.553771076769268e-05</v>
+      </c>
+      <c r="D190" t="n">
+        <v>50.17335049567121</v>
+      </c>
+      <c r="E190" t="n">
+        <v>4.339508641315604e-09</v>
+      </c>
+      <c r="F190" t="n">
+        <v>8.362225082611868</v>
       </c>
     </row>
     <row r="191">
@@ -1890,7 +4178,19 @@
         <v>5.312880000000001</v>
       </c>
       <c r="B191" t="n">
-        <v>0.001638276780036324</v>
+        <v>0.001692675780320442</v>
+      </c>
+      <c r="C191" t="n">
+        <v>3.409524451951267e-05</v>
+      </c>
+      <c r="D191" t="n">
+        <v>52.80631452558745</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1.283523065609415e-09</v>
+      </c>
+      <c r="F191" t="n">
+        <v>8.80105242093124</v>
       </c>
     </row>
     <row r="192">
@@ -1898,7 +4198,19 @@
         <v>5.31752</v>
       </c>
       <c r="B192" t="n">
-        <v>0.00139865254282375</v>
+        <v>0.001449998082358255</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2.93249331250527e-05</v>
+      </c>
+      <c r="D192" t="n">
+        <v>57.8209339008022</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1.24579124793911e-10</v>
+      </c>
+      <c r="F192" t="n">
+        <v>9.636822316800368</v>
       </c>
     </row>
     <row r="193">
@@ -1906,7 +4218,19 @@
         <v>5.32281</v>
       </c>
       <c r="B193" t="n">
-        <v>0.001110825173435841</v>
+        <v>0.00115329631089583</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2.344804706580329e-05</v>
+      </c>
+      <c r="D193" t="n">
+        <v>58.58281602193557</v>
+      </c>
+      <c r="E193" t="n">
+        <v>8.729417189101696e-11</v>
+      </c>
+      <c r="F193" t="n">
+        <v>9.763802670322596</v>
       </c>
     </row>
     <row r="194">
@@ -1914,7 +4238,19 @@
         <v>5.32768</v>
       </c>
       <c r="B194" t="n">
-        <v>0.00094404454104022</v>
+        <v>0.000973465575384854</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.999823584924764e-05</v>
+      </c>
+      <c r="D194" t="n">
+        <v>49.25839287771596</v>
+      </c>
+      <c r="E194" t="n">
+        <v>6.61875865226591e-09</v>
+      </c>
+      <c r="F194" t="n">
+        <v>8.209732146285994</v>
       </c>
     </row>
     <row r="195">
@@ -1922,7 +4258,19 @@
         <v>5.33288</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0006869792917602342</v>
+        <v>0.000713781272804839</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1.522091132823905e-05</v>
+      </c>
+      <c r="D195" t="n">
+        <v>54.2369838146336</v>
+      </c>
+      <c r="E195" t="n">
+        <v>6.608328328994162e-10</v>
+      </c>
+      <c r="F195" t="n">
+        <v>9.039497302438933</v>
       </c>
     </row>
     <row r="196">
@@ -1930,7 +4278,19 @@
         <v>5.33291</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0007169700459209694</v>
+        <v>0.0007406545066814534</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1.532492451962716e-05</v>
+      </c>
+      <c r="D196" t="n">
+        <v>51.67729379006959</v>
+      </c>
+      <c r="E196" t="n">
+        <v>2.16526963026098e-09</v>
+      </c>
+      <c r="F196" t="n">
+        <v>8.612882298344932</v>
       </c>
     </row>
     <row r="197">
@@ -1938,7 +4298,19 @@
         <v>5.33747</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0004852320295116417</v>
+        <v>0.00049858078567783</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1.049260149197423e-05</v>
+      </c>
+      <c r="D197" t="n">
+        <v>42.9392320983348</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1.19918134866559e-07</v>
+      </c>
+      <c r="F197" t="n">
+        <v>7.1565386830558</v>
       </c>
     </row>
     <row r="198">
@@ -1946,7 +4318,19 @@
         <v>5.34274</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0002990046499675782</v>
+        <v>0.0003061278089752024</v>
+      </c>
+      <c r="C198" t="n">
+        <v>6.861045757148927e-06</v>
+      </c>
+      <c r="D198" t="n">
+        <v>32.19849496644835</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1.494832310811045e-05</v>
+      </c>
+      <c r="F198" t="n">
+        <v>5.366415827741392</v>
       </c>
     </row>
     <row r="199">
@@ -1954,7 +4338,19 @@
         <v>5.34293</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0003020685071218894</v>
+        <v>0.0003087295795286184</v>
+      </c>
+      <c r="C199" t="n">
+        <v>6.729345769335433e-06</v>
+      </c>
+      <c r="D199" t="n">
+        <v>31.89491936226597</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1.709208083566782e-05</v>
+      </c>
+      <c r="F199" t="n">
+        <v>5.315819893710994</v>
       </c>
     </row>
     <row r="200">
@@ -1962,7 +4358,19 @@
         <v>5.34694</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0002277669266425744</v>
+        <v>0.0002308660457281311</v>
+      </c>
+      <c r="C200" t="n">
+        <v>5.217069914369818e-06</v>
+      </c>
+      <c r="D200" t="n">
+        <v>19.58942663856751</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.003275770034170677</v>
+      </c>
+      <c r="F200" t="n">
+        <v>3.264904439761251</v>
       </c>
     </row>
     <row r="201">
@@ -1970,7 +4378,19 @@
         <v>5.34826</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0002166798248970067</v>
+        <v>0.0002211610978150216</v>
+      </c>
+      <c r="C201" t="n">
+        <v>4.88556262289112e-06</v>
+      </c>
+      <c r="D201" t="n">
+        <v>29.82951414202804</v>
+      </c>
+      <c r="E201" t="n">
+        <v>4.235304558419806e-05</v>
+      </c>
+      <c r="F201" t="n">
+        <v>4.971585690338006</v>
       </c>
     </row>
     <row r="202">
@@ -1978,7 +4398,19 @@
         <v>5.34858</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0002028118168995692</v>
+        <v>0.000206459265051027</v>
+      </c>
+      <c r="C202" t="n">
+        <v>4.56744116106204e-06</v>
+      </c>
+      <c r="D202" t="n">
+        <v>23.48807502480455</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.0006484541220996842</v>
+      </c>
+      <c r="F202" t="n">
+        <v>3.914679170800758</v>
       </c>
     </row>
     <row r="203">
@@ -1986,7 +4418,19 @@
         <v>5.35205</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0003413166007793605</v>
+        <v>0.0003487022236739957</v>
+      </c>
+      <c r="C203" t="n">
+        <v>7.833973770142414e-06</v>
+      </c>
+      <c r="D203" t="n">
+        <v>33.26146869093682</v>
+      </c>
+      <c r="E203" t="n">
+        <v>9.33833738259171e-06</v>
+      </c>
+      <c r="F203" t="n">
+        <v>5.543578115156137</v>
       </c>
     </row>
     <row r="204">
@@ -1994,7 +4438,19 @@
         <v>5.3536</v>
       </c>
       <c r="B204" t="n">
-        <v>0.000262132480281563</v>
+        <v>0.0002694781500806527</v>
+      </c>
+      <c r="C204" t="n">
+        <v>5.656485321487363e-06</v>
+      </c>
+      <c r="D204" t="n">
+        <v>42.30703521643164</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1.599128756080148e-07</v>
+      </c>
+      <c r="F204" t="n">
+        <v>7.051172536071939</v>
       </c>
     </row>
     <row r="205">
@@ -2002,7 +4458,19 @@
         <v>5.3579</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0004159692969135702</v>
+        <v>0.0004247079690582513</v>
+      </c>
+      <c r="C205" t="n">
+        <v>9.427212614811175e-06</v>
+      </c>
+      <c r="D205" t="n">
+        <v>31.29549337984707</v>
+      </c>
+      <c r="E205" t="n">
+        <v>2.225948316814108e-05</v>
+      </c>
+      <c r="F205" t="n">
+        <v>5.215915563307845</v>
       </c>
     </row>
     <row r="206">
@@ -2010,7 +4478,19 @@
         <v>5.35797</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0004375090931209695</v>
+        <v>0.0004508656766638363</v>
+      </c>
+      <c r="C206" t="n">
+        <v>9.369411225220974e-06</v>
+      </c>
+      <c r="D206" t="n">
+        <v>46.69179468567683</v>
+      </c>
+      <c r="E206" t="n">
+        <v>2.155555844929324e-08</v>
+      </c>
+      <c r="F206" t="n">
+        <v>7.781965780946138</v>
       </c>
     </row>
     <row r="207">
@@ -2018,7 +4498,19 @@
         <v>5.359830000000001</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0003943615889664449</v>
+        <v>0.0004028047439792973</v>
+      </c>
+      <c r="C207" t="n">
+        <v>8.947081440922173e-06</v>
+      </c>
+      <c r="D207" t="n">
+        <v>30.58156492999067</v>
+      </c>
+      <c r="E207" t="n">
+        <v>3.046385156746378e-05</v>
+      </c>
+      <c r="F207" t="n">
+        <v>5.096927488331779</v>
       </c>
     </row>
     <row r="208">
@@ -2026,7 +4518,19 @@
         <v>5.36189</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0003791094404240914</v>
+        <v>0.0003890870827718032</v>
+      </c>
+      <c r="C208" t="n">
+        <v>8.703893360746962e-06</v>
+      </c>
+      <c r="D208" t="n">
+        <v>33.01037210510177</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1.043775738018837e-05</v>
+      </c>
+      <c r="F208" t="n">
+        <v>5.501728684183629</v>
       </c>
     </row>
     <row r="209">
@@ -2034,7 +4538,19 @@
         <v>5.36386</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0003728334985107081</v>
+        <v>0.000383226356970559</v>
+      </c>
+      <c r="C209" t="n">
+        <v>8.582923381419402e-06</v>
+      </c>
+      <c r="D209" t="n">
+        <v>39.17713525332366</v>
+      </c>
+      <c r="E209" t="n">
+        <v>6.607524511981211e-07</v>
+      </c>
+      <c r="F209" t="n">
+        <v>6.529522542220609</v>
       </c>
     </row>
     <row r="210">
@@ -2042,7 +4558,19 @@
         <v>5.36605</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0003637726126978656</v>
+        <v>0.0003712860153925413</v>
+      </c>
+      <c r="C210" t="n">
+        <v>8.410647353649915e-06</v>
+      </c>
+      <c r="D210" t="n">
+        <v>30.71065687401128</v>
+      </c>
+      <c r="E210" t="n">
+        <v>2.87855584331087e-05</v>
+      </c>
+      <c r="F210" t="n">
+        <v>5.118442812335214</v>
       </c>
     </row>
     <row r="211">
@@ -2050,7 +4578,19 @@
         <v>5.368040000000001</v>
       </c>
       <c r="B211" t="n">
-        <v>0.000345628083849508</v>
+        <v>0.0003534411550465459</v>
+      </c>
+      <c r="C211" t="n">
+        <v>7.49436198383157e-06</v>
+      </c>
+      <c r="D211" t="n">
+        <v>33.06867806589392</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1.017154354676642e-05</v>
+      </c>
+      <c r="F211" t="n">
+        <v>5.511446344315654</v>
       </c>
     </row>
     <row r="212">
@@ -2058,7 +4598,19 @@
         <v>5.36827</v>
       </c>
       <c r="B212" t="n">
-        <v>0.0003546816532086457</v>
+        <v>0.0003652284017005405</v>
+      </c>
+      <c r="C212" t="n">
+        <v>7.692080365220136e-06</v>
+      </c>
+      <c r="D212" t="n">
+        <v>47.28572404783617</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1.640976465822064e-08</v>
+      </c>
+      <c r="F212" t="n">
+        <v>7.880954007972695</v>
       </c>
     </row>
     <row r="213">
@@ -2066,7 +4618,19 @@
         <v>5.36965</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0003561334495787768</v>
+        <v>0.0003623306127826768</v>
+      </c>
+      <c r="C213" t="n">
+        <v>8.030912358706867e-06</v>
+      </c>
+      <c r="D213" t="n">
+        <v>25.69521662372791</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.0002537073744528495</v>
+      </c>
+      <c r="F213" t="n">
+        <v>4.282536103954651</v>
       </c>
     </row>
     <row r="214">
@@ -2074,7 +4638,19 @@
         <v>5.371490000000001</v>
       </c>
       <c r="B214" t="n">
-        <v>0.0003779737389628343</v>
+        <v>0.0003880390186325994</v>
+      </c>
+      <c r="C214" t="n">
+        <v>8.109401604173041e-06</v>
+      </c>
+      <c r="D214" t="n">
+        <v>42.2986501535613</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1.605240711466394e-07</v>
+      </c>
+      <c r="F214" t="n">
+        <v>7.049775025593551</v>
       </c>
     </row>
     <row r="215">
@@ -2082,7 +4658,19 @@
         <v>5.373419999999999</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0003052220705854214</v>
+        <v>0.0003149899192794188</v>
+      </c>
+      <c r="C215" t="n">
+        <v>6.536488205888981e-06</v>
+      </c>
+      <c r="D215" t="n">
+        <v>49.4478802993792</v>
+      </c>
+      <c r="E215" t="n">
+        <v>6.064989066523196e-09</v>
+      </c>
+      <c r="F215" t="n">
+        <v>8.241313383229867</v>
       </c>
     </row>
     <row r="216">
@@ -2090,7 +4678,19 @@
         <v>5.3748</v>
       </c>
       <c r="B216" t="n">
-        <v>0.0002070143027124099</v>
+        <v>0.0002126494135783802</v>
+      </c>
+      <c r="C216" t="n">
+        <v>4.587959639843009e-06</v>
+      </c>
+      <c r="D216" t="n">
+        <v>39.32928515677526</v>
+      </c>
+      <c r="E216" t="n">
+        <v>6.168731515598935e-07</v>
+      </c>
+      <c r="F216" t="n">
+        <v>6.554880859462543</v>
       </c>
     </row>
     <row r="217">
@@ -2098,7 +4698,19 @@
         <v>5.38009</v>
       </c>
       <c r="B217" t="n">
-        <v>9.177975369540034e-05</v>
+        <v>9.298024060542245e-05</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2.358510623366864e-06</v>
+      </c>
+      <c r="D217" t="n">
+        <v>23.2529808383674</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.0007160283954176228</v>
+      </c>
+      <c r="F217" t="n">
+        <v>3.875496806394566</v>
       </c>
     </row>
     <row r="218">
@@ -2106,7 +4718,19 @@
         <v>5.382919999999999</v>
       </c>
       <c r="B218" t="n">
-        <v>5.846116919963105e-05</v>
+        <v>5.879553907532702e-05</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1.644257273194668e-06</v>
+      </c>
+      <c r="D218" t="n">
+        <v>6.411029670906714</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.3787539716640207</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1.068504945151119</v>
       </c>
     </row>
     <row r="219">
@@ -2114,7 +4738,19 @@
         <v>5.38334</v>
       </c>
       <c r="B219" t="n">
-        <v>8.303056368735234e-05</v>
+        <v>8.460092369307001e-05</v>
+      </c>
+      <c r="C219" t="n">
+        <v>2.032815556867817e-06</v>
+      </c>
+      <c r="D219" t="n">
+        <v>25.00635341552062</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.0003405309479290741</v>
+      </c>
+      <c r="F219" t="n">
+        <v>4.167725569253437</v>
       </c>
     </row>
     <row r="220">
@@ -2122,7 +4758,19 @@
         <v>5.383859999999999</v>
       </c>
       <c r="B220" t="n">
-        <v>5.205823174448988e-05</v>
+        <v>5.226257373745518e-05</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1.420947154990456e-06</v>
+      </c>
+      <c r="D220" t="n">
+        <v>14.2687967935849</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.02677351507617698</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2.378132798930817</v>
       </c>
     </row>
     <row r="221">
@@ -2130,7 +4778,19 @@
         <v>5.38596</v>
       </c>
       <c r="B221" t="n">
-        <v>4.048857448684169e-05</v>
+        <v>4.08090919096035e-05</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1.205476862213994e-06</v>
+      </c>
+      <c r="D221" t="n">
+        <v>7.935817927268878</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.2428432724446177</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1.32263632121148</v>
       </c>
     </row>
     <row r="222">
@@ -2138,7 +4798,19 @@
         <v>5.38986</v>
       </c>
       <c r="B222" t="n">
-        <v>3.438590089840738e-05</v>
+        <v>3.455102190854197e-05</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1.012722341612268e-06</v>
+      </c>
+      <c r="D222" t="n">
+        <v>3.393199023195454</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.7581205898009469</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0.5655331705325757</v>
       </c>
     </row>
     <row r="223">
@@ -2146,7 +4818,19 @@
         <v>5.39308</v>
       </c>
       <c r="B223" t="n">
-        <v>3.285561182566162e-05</v>
+        <v>3.275852414710458e-05</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1.029982541651419e-06</v>
+      </c>
+      <c r="D223" t="n">
+        <v>9.29364514785988</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.1577246769419434</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1.548940857976647</v>
       </c>
     </row>
     <row r="224">
@@ -2154,7 +4838,19 @@
         <v>5.40341</v>
       </c>
       <c r="B224" t="n">
-        <v>3.206706313039144e-05</v>
+        <v>3.199936756078837e-05</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1.017433711432045e-06</v>
+      </c>
+      <c r="D224" t="n">
+        <v>9.401484082080994</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.1522258874885859</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1.566914013680166</v>
       </c>
     </row>
     <row r="225">
@@ -2162,7 +4858,19 @@
         <v>5.41408</v>
       </c>
       <c r="B225" t="n">
-        <v>3.805719380595776e-05</v>
+        <v>3.812077139036652e-05</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1.159440140326604e-06</v>
+      </c>
+      <c r="D225" t="n">
+        <v>2.067264334846244</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.9134094579772343</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.3445440558077073</v>
       </c>
     </row>
     <row r="226">
@@ -2170,7 +4878,19 @@
         <v>5.42436</v>
       </c>
       <c r="B226" t="n">
-        <v>3.921564797777978e-05</v>
+        <v>3.923601840003866e-05</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1.209302695543089e-06</v>
+      </c>
+      <c r="D226" t="n">
+        <v>6.154062261844592</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.4061552455435038</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1.025677043640765</v>
       </c>
     </row>
     <row r="227">
@@ -2178,7 +4898,19 @@
         <v>5.43541</v>
       </c>
       <c r="B227" t="n">
-        <v>4.32207233109691e-05</v>
+        <v>4.391265309970559e-05</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1.165406731688579e-06</v>
+      </c>
+      <c r="D227" t="n">
+        <v>16.68734838332671</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.01050364264042125</v>
+      </c>
+      <c r="F227" t="n">
+        <v>2.781224730554451</v>
       </c>
     </row>
     <row r="228">
@@ -2186,7 +4918,19 @@
         <v>5.43926</v>
       </c>
       <c r="B228" t="n">
-        <v>4.981734437383311e-05</v>
+        <v>5.03368536660795e-05</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1.350501383972016e-06</v>
+      </c>
+      <c r="D228" t="n">
+        <v>9.629035798294765</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.1411686409143686</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1.604839299715794</v>
       </c>
     </row>
     <row r="229">
@@ -2194,7 +4938,19 @@
         <v>5.44082</v>
       </c>
       <c r="B229" t="n">
-        <v>5.002258787866824e-05</v>
+        <v>5.067081734918347e-05</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1.500482927809915e-06</v>
+      </c>
+      <c r="D229" t="n">
+        <v>14.529008960234</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.02425391091136508</v>
+      </c>
+      <c r="F229" t="n">
+        <v>2.421501493372334</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/CSV/analytically/p2/a0/a0Fit.xlsx
+++ b/legendre_out/CSV/analytically/p2/a0/a0Fit.xlsx
@@ -427,7 +427,7 @@
         <v>38.65340507507563</v>
       </c>
       <c r="E3" t="n">
-        <v>8.36899768819066e-07</v>
+        <v>8.368997688366074e-07</v>
       </c>
       <c r="F3" t="n">
         <v>6.442234179179271</v>
@@ -447,7 +447,7 @@
         <v>40.11414828192208</v>
       </c>
       <c r="E4" t="n">
-        <v>4.32581353293493e-07</v>
+        <v>4.32581353332672e-07</v>
       </c>
       <c r="F4" t="n">
         <v>6.685691380320347</v>
@@ -467,7 +467,7 @@
         <v>19.5830507250564</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003284305494379192</v>
+        <v>0.003284305494379222</v>
       </c>
       <c r="F5" t="n">
         <v>3.2638417875094</v>
@@ -487,7 +487,7 @@
         <v>7.604710301917951</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2685164930124453</v>
+        <v>0.2685164930124452</v>
       </c>
       <c r="F6" t="n">
         <v>1.267451716986325</v>
@@ -647,7 +647,7 @@
         <v>13.7950759721599</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03201095322107017</v>
+        <v>0.03201095322107014</v>
       </c>
       <c r="F14" t="n">
         <v>2.299179328693316</v>
@@ -707,7 +707,7 @@
         <v>23.0180297235037</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0007904624125847359</v>
+        <v>0.0007904624125847078</v>
       </c>
       <c r="F17" t="n">
         <v>3.836338287250616</v>
@@ -727,7 +727,7 @@
         <v>22.0776126692234</v>
       </c>
       <c r="E18" t="n">
-        <v>0.001172277458853288</v>
+        <v>0.001172277458853313</v>
       </c>
       <c r="F18" t="n">
         <v>3.679602111537232</v>
@@ -747,7 +747,7 @@
         <v>25.14351163489842</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0003211806337437562</v>
+        <v>0.0003211806337437873</v>
       </c>
       <c r="F19" t="n">
         <v>4.19058527248307</v>
@@ -767,7 +767,7 @@
         <v>35.68556727413183</v>
       </c>
       <c r="E20" t="n">
-        <v>3.172920006400126e-06</v>
+        <v>3.172920006383331e-06</v>
       </c>
       <c r="F20" t="n">
         <v>5.947594545688639</v>
@@ -787,7 +787,7 @@
         <v>45.1618819895594</v>
       </c>
       <c r="E21" t="n">
-        <v>4.346047965952948e-08</v>
+        <v>4.346047970575254e-08</v>
       </c>
       <c r="F21" t="n">
         <v>7.526980331593234</v>
@@ -807,7 +807,7 @@
         <v>33.63508379946356</v>
       </c>
       <c r="E22" t="n">
-        <v>7.91162681679225e-06</v>
+        <v>7.911626816837493e-06</v>
       </c>
       <c r="F22" t="n">
         <v>5.605847299910593</v>
@@ -827,7 +827,7 @@
         <v>66.34314456792683</v>
       </c>
       <c r="E23" t="n">
-        <v>2.293165657363261e-12</v>
+        <v>2.29319451278445e-12</v>
       </c>
       <c r="F23" t="n">
         <v>11.05719076132114</v>
@@ -847,7 +847,7 @@
         <v>71.49363294534653</v>
       </c>
       <c r="E24" t="n">
-        <v>2.018385458768535e-13</v>
+        <v>2.018765190691402e-13</v>
       </c>
       <c r="F24" t="n">
         <v>11.91560549089109</v>
@@ -867,7 +867,7 @@
         <v>49.76922914985502</v>
       </c>
       <c r="E25" t="n">
-        <v>5.229381372373609e-09</v>
+        <v>5.229381427652546e-09</v>
       </c>
       <c r="F25" t="n">
         <v>8.294871524975838</v>
@@ -887,7 +887,7 @@
         <v>65.14205403743524</v>
       </c>
       <c r="E26" t="n">
-        <v>4.035216605302594e-12</v>
+        <v>4.035219226674614e-12</v>
       </c>
       <c r="F26" t="n">
         <v>10.85700900623921</v>
@@ -907,7 +907,7 @@
         <v>58.57792198279377</v>
       </c>
       <c r="E27" t="n">
-        <v>8.749390101314702e-11</v>
+        <v>8.749389391469675e-11</v>
       </c>
       <c r="F27" t="n">
         <v>9.762986997132295</v>
@@ -927,7 +927,7 @@
         <v>58.61016120668757</v>
       </c>
       <c r="E28" t="n">
-        <v>8.618639135704598e-11</v>
+        <v>8.618639568898421e-11</v>
       </c>
       <c r="F28" t="n">
         <v>9.768360201114595</v>
@@ -947,7 +947,7 @@
         <v>54.37329667446646</v>
       </c>
       <c r="E29" t="n">
-        <v>6.202857116832661e-10</v>
+        <v>6.202857664558584e-10</v>
       </c>
       <c r="F29" t="n">
         <v>9.062216112411077</v>
@@ -967,7 +967,7 @@
         <v>45.91353969878766</v>
       </c>
       <c r="E30" t="n">
-        <v>3.0802368100602e-08</v>
+        <v>3.080236808613829e-08</v>
       </c>
       <c r="F30" t="n">
         <v>7.65225661646461</v>
@@ -987,7 +987,7 @@
         <v>51.80473769882521</v>
       </c>
       <c r="E31" t="n">
-        <v>2.041243618577937e-09</v>
+        <v>2.041243657043549e-09</v>
       </c>
       <c r="F31" t="n">
         <v>8.634122949804203</v>
@@ -1007,7 +1007,7 @@
         <v>61.23798779524543</v>
       </c>
       <c r="E32" t="n">
-        <v>2.521394204535454e-11</v>
+        <v>2.521390940056658e-11</v>
       </c>
       <c r="F32" t="n">
         <v>10.20633129920757</v>
@@ -1027,7 +1027,7 @@
         <v>73.64207848169691</v>
       </c>
       <c r="E33" t="n">
-        <v>7.30526750203353e-14</v>
+        <v>7.304092512114773e-14</v>
       </c>
       <c r="F33" t="n">
         <v>12.27367974694948</v>
@@ -1047,7 +1047,7 @@
         <v>51.41471353989903</v>
       </c>
       <c r="E34" t="n">
-        <v>2.444989877226078e-09</v>
+        <v>2.444989911353323e-09</v>
       </c>
       <c r="F34" t="n">
         <v>8.569118923316504</v>
@@ -1067,7 +1067,7 @@
         <v>54.06911653976545</v>
       </c>
       <c r="E35" t="n">
-        <v>7.144144165138755e-10</v>
+        <v>7.144143887222981e-10</v>
       </c>
       <c r="F35" t="n">
         <v>9.01151942329424</v>
@@ -1087,7 +1087,7 @@
         <v>60.42507055329011</v>
       </c>
       <c r="E36" t="n">
-        <v>3.689237804138656e-11</v>
+        <v>3.68923481971696e-11</v>
       </c>
       <c r="F36" t="n">
         <v>10.07084509221502</v>
@@ -1107,7 +1107,7 @@
         <v>65.03033024593552</v>
       </c>
       <c r="E37" t="n">
-        <v>4.252820318129125e-12</v>
+        <v>4.252872897587105e-12</v>
       </c>
       <c r="F37" t="n">
         <v>10.83838837432259</v>
@@ -1127,7 +1127,7 @@
         <v>63.71864449302596</v>
       </c>
       <c r="E38" t="n">
-        <v>7.877032359715486e-12</v>
+        <v>7.87700997595377e-12</v>
       </c>
       <c r="F38" t="n">
         <v>10.61977408217099</v>
@@ -1147,7 +1147,7 @@
         <v>52.31372458718607</v>
       </c>
       <c r="E39" t="n">
-        <v>1.612637356984692e-09</v>
+        <v>1.612637317114294e-09</v>
       </c>
       <c r="F39" t="n">
         <v>8.718954097864344</v>
@@ -1167,7 +1167,7 @@
         <v>72.2021366905883</v>
       </c>
       <c r="E40" t="n">
-        <v>1.444400155037329e-13</v>
+        <v>1.443987575640287e-13</v>
       </c>
       <c r="F40" t="n">
         <v>12.03368944843138</v>
@@ -1187,7 +1187,7 @@
         <v>51.93622612194797</v>
       </c>
       <c r="E41" t="n">
-        <v>1.920700487545446e-09</v>
+        <v>1.920700531330956e-09</v>
       </c>
       <c r="F41" t="n">
         <v>8.656037686991327</v>
@@ -1207,7 +1207,7 @@
         <v>56.81276956889229</v>
       </c>
       <c r="E42" t="n">
-        <v>1.993513132347857e-10</v>
+        <v>1.993512903140817e-10</v>
       </c>
       <c r="F42" t="n">
         <v>9.468794928148716</v>
@@ -1227,7 +1227,7 @@
         <v>24.55697711874233</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0004123287657223917</v>
+        <v>0.0004123287657224016</v>
       </c>
       <c r="F43" t="n">
         <v>4.092829519790389</v>
@@ -1247,7 +1247,7 @@
         <v>27.11120362386063</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0001380232685384009</v>
+        <v>0.000138023268538371</v>
       </c>
       <c r="F44" t="n">
         <v>4.518533937310106</v>
@@ -1267,7 +1267,7 @@
         <v>27.63298340202487</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0001101560812519775</v>
+        <v>0.0001101560812519901</v>
       </c>
       <c r="F45" t="n">
         <v>4.605497233670811</v>
@@ -1307,7 +1307,7 @@
         <v>7.679653344746083</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2625245225344766</v>
+        <v>0.2625245225344765</v>
       </c>
       <c r="F47" t="n">
         <v>1.279942224124347</v>
@@ -1327,7 +1327,7 @@
         <v>8.750338697490058</v>
       </c>
       <c r="E48" t="n">
-        <v>0.188113318686328</v>
+        <v>0.1881133186863279</v>
       </c>
       <c r="F48" t="n">
         <v>1.45838978291501</v>
@@ -1447,7 +1447,7 @@
         <v>10.84721241405757</v>
       </c>
       <c r="E54" t="n">
-        <v>0.09321486334825235</v>
+        <v>0.09321486334825232</v>
       </c>
       <c r="F54" t="n">
         <v>1.807868735676262</v>
@@ -1487,7 +1487,7 @@
         <v>9.104392282425426</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1677916842851046</v>
+        <v>0.1677916842851045</v>
       </c>
       <c r="F56" t="n">
         <v>1.517398713737571</v>
@@ -1507,7 +1507,7 @@
         <v>16.85363012365973</v>
       </c>
       <c r="E57" t="n">
-        <v>0.00983649870358827</v>
+        <v>0.009836498703588265</v>
       </c>
       <c r="F57" t="n">
         <v>2.808938353943288</v>
@@ -1527,7 +1527,7 @@
         <v>11.21374636306402</v>
       </c>
       <c r="E58" t="n">
-        <v>0.08199075867249139</v>
+        <v>0.08199075867249141</v>
       </c>
       <c r="F58" t="n">
         <v>1.868957727177337</v>
@@ -1587,7 +1587,7 @@
         <v>14.20175856354475</v>
       </c>
       <c r="E61" t="n">
-        <v>0.02746183902258204</v>
+        <v>0.02746183902258207</v>
       </c>
       <c r="F61" t="n">
         <v>2.366959760590791</v>
@@ -1687,7 +1687,7 @@
         <v>39.58790458868469</v>
       </c>
       <c r="E66" t="n">
-        <v>5.488366222605734e-07</v>
+        <v>5.488366222578332e-07</v>
       </c>
       <c r="F66" t="n">
         <v>6.597984098114115</v>
@@ -1707,7 +1707,7 @@
         <v>51.16278290167494</v>
       </c>
       <c r="E67" t="n">
-        <v>2.747150729121017e-09</v>
+        <v>2.747150781396607e-09</v>
       </c>
       <c r="F67" t="n">
         <v>8.52713048361249</v>
@@ -1727,7 +1727,7 @@
         <v>37.0309793993086</v>
       </c>
       <c r="E68" t="n">
-        <v>1.736571730859282e-06</v>
+        <v>1.736571730859264e-06</v>
       </c>
       <c r="F68" t="n">
         <v>6.171829899884766</v>
@@ -1747,7 +1747,7 @@
         <v>30.34532662274819</v>
       </c>
       <c r="E69" t="n">
-        <v>3.378986133117934e-05</v>
+        <v>3.378986133120981e-05</v>
       </c>
       <c r="F69" t="n">
         <v>5.057554437124698</v>
@@ -1767,7 +1767,7 @@
         <v>32.46256617249972</v>
       </c>
       <c r="E70" t="n">
-        <v>1.330175002534073e-05</v>
+        <v>1.330175002535408e-05</v>
       </c>
       <c r="F70" t="n">
         <v>5.41042769541662</v>
@@ -1787,7 +1787,7 @@
         <v>22.94209702333752</v>
       </c>
       <c r="E71" t="n">
-        <v>0.000816105560939695</v>
+        <v>0.0008161055609396696</v>
       </c>
       <c r="F71" t="n">
         <v>3.82368283722292</v>
@@ -1807,7 +1807,7 @@
         <v>19.11398497530641</v>
       </c>
       <c r="E72" t="n">
-        <v>0.003975398890758042</v>
+        <v>0.003975398890758003</v>
       </c>
       <c r="F72" t="n">
         <v>3.185664162551068</v>
@@ -1927,7 +1927,7 @@
         <v>13.57089653517488</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0348145722120351</v>
+        <v>0.03481457221203511</v>
       </c>
       <c r="F78" t="n">
         <v>2.261816089195813</v>
@@ -1947,7 +1947,7 @@
         <v>35.04722261610122</v>
       </c>
       <c r="E79" t="n">
-        <v>4.219660345805565e-06</v>
+        <v>4.219660345752928e-06</v>
       </c>
       <c r="F79" t="n">
         <v>5.841203769350202</v>
@@ -1967,7 +1967,7 @@
         <v>41.64130919326728</v>
       </c>
       <c r="E80" t="n">
-        <v>2.164319188313613e-07</v>
+        <v>2.164319188358421e-07</v>
       </c>
       <c r="F80" t="n">
         <v>6.940218198877879</v>
@@ -1987,7 +1987,7 @@
         <v>57.111636289298</v>
       </c>
       <c r="E81" t="n">
-        <v>1.734277166320908e-10</v>
+        <v>1.734277570649308e-10</v>
       </c>
       <c r="F81" t="n">
         <v>9.518606048216334</v>
@@ -2007,7 +2007,7 @@
         <v>30.95016611449918</v>
       </c>
       <c r="E82" t="n">
-        <v>2.591069990165451e-05</v>
+        <v>2.591069990168112e-05</v>
       </c>
       <c r="F82" t="n">
         <v>5.158361019083197</v>
@@ -2027,7 +2027,7 @@
         <v>20.1012628462449</v>
       </c>
       <c r="E83" t="n">
-        <v>0.002656760092685562</v>
+        <v>0.00265676009268552</v>
       </c>
       <c r="F83" t="n">
         <v>3.350210474374149</v>
@@ -2047,7 +2047,7 @@
         <v>12.71564408406304</v>
       </c>
       <c r="E84" t="n">
-        <v>0.04778046823351212</v>
+        <v>0.04778046823351217</v>
       </c>
       <c r="F84" t="n">
         <v>2.119274014010506</v>
@@ -2127,7 +2127,7 @@
         <v>8.006748447365174</v>
       </c>
       <c r="E88" t="n">
-        <v>0.2376093139973908</v>
+        <v>0.2376093139973909</v>
       </c>
       <c r="F88" t="n">
         <v>1.334458074560862</v>
@@ -2147,7 +2147,7 @@
         <v>13.21819289719311</v>
       </c>
       <c r="E89" t="n">
-        <v>0.03969894867180157</v>
+        <v>0.03969894867180162</v>
       </c>
       <c r="F89" t="n">
         <v>2.203032149532186</v>
@@ -2167,7 +2167,7 @@
         <v>13.70559331244622</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0331034367257419</v>
+        <v>0.03310343672574193</v>
       </c>
       <c r="F90" t="n">
         <v>2.284265552074369</v>
@@ -2187,7 +2187,7 @@
         <v>12.72678409446145</v>
       </c>
       <c r="E91" t="n">
-        <v>0.04758573214980943</v>
+        <v>0.04758573214980946</v>
       </c>
       <c r="F91" t="n">
         <v>2.121130682410242</v>
@@ -2227,7 +2227,7 @@
         <v>12.71835891454357</v>
       </c>
       <c r="E93" t="n">
-        <v>0.04773294232757286</v>
+        <v>0.04773294232757289</v>
       </c>
       <c r="F93" t="n">
         <v>2.119726485757262</v>
@@ -2247,7 +2247,7 @@
         <v>17.02433083403097</v>
       </c>
       <c r="E94" t="n">
-        <v>0.009194239640915147</v>
+        <v>0.009194239640915165</v>
       </c>
       <c r="F94" t="n">
         <v>2.837388472338494</v>
@@ -2267,7 +2267,7 @@
         <v>38.2913818443337</v>
       </c>
       <c r="E95" t="n">
-        <v>9.852244724495307e-07</v>
+        <v>9.852244724849797e-07</v>
       </c>
       <c r="F95" t="n">
         <v>6.381896974055617</v>
@@ -2287,7 +2287,7 @@
         <v>36.1803042690853</v>
       </c>
       <c r="E96" t="n">
-        <v>2.542878433264839e-06</v>
+        <v>2.542878433310832e-06</v>
       </c>
       <c r="F96" t="n">
         <v>6.030050711514217</v>
@@ -2307,7 +2307,7 @@
         <v>28.40876683534776</v>
       </c>
       <c r="E97" t="n">
-        <v>7.868589607396004e-05</v>
+        <v>7.868589607400739e-05</v>
       </c>
       <c r="F97" t="n">
         <v>4.734794472557961</v>
@@ -2327,7 +2327,7 @@
         <v>31.09977491186031</v>
       </c>
       <c r="E98" t="n">
-        <v>2.426121196863473e-05</v>
+        <v>2.426121196866717e-05</v>
       </c>
       <c r="F98" t="n">
         <v>5.183295818643384</v>
@@ -2347,7 +2347,7 @@
         <v>29.0833009334807</v>
       </c>
       <c r="E99" t="n">
-        <v>5.866782845820318e-05</v>
+        <v>5.866782845818287e-05</v>
       </c>
       <c r="F99" t="n">
         <v>4.847216822246784</v>
@@ -2367,7 +2367,7 @@
         <v>34.1378165089673</v>
       </c>
       <c r="E100" t="n">
-        <v>6.327459012966941e-06</v>
+        <v>6.327459012974782e-06</v>
       </c>
       <c r="F100" t="n">
         <v>5.689636084827884</v>
@@ -2387,7 +2387,7 @@
         <v>21.66389540519915</v>
       </c>
       <c r="E101" t="n">
-        <v>0.00139289557570077</v>
+        <v>0.001392895575700775</v>
       </c>
       <c r="F101" t="n">
         <v>3.610649234199858</v>
@@ -2447,7 +2447,7 @@
         <v>13.53883074882082</v>
       </c>
       <c r="E104" t="n">
-        <v>0.03523405397595458</v>
+        <v>0.0352340539759546</v>
       </c>
       <c r="F104" t="n">
         <v>2.256471791470137</v>
@@ -2467,7 +2467,7 @@
         <v>21.75720370726233</v>
       </c>
       <c r="E105" t="n">
-        <v>0.001339833828813308</v>
+        <v>0.001339833828813295</v>
       </c>
       <c r="F105" t="n">
         <v>3.626200617877055</v>
@@ -2627,7 +2627,7 @@
         <v>12.68916326022078</v>
       </c>
       <c r="E113" t="n">
-        <v>0.04824636827672057</v>
+        <v>0.04824636827672056</v>
       </c>
       <c r="F113" t="n">
         <v>2.11486054337013</v>
@@ -2707,7 +2707,7 @@
         <v>13.45711811630997</v>
       </c>
       <c r="E117" t="n">
-        <v>0.03632467067981959</v>
+        <v>0.03632467067981958</v>
       </c>
       <c r="F117" t="n">
         <v>2.242853019384996</v>
@@ -2727,7 +2727,7 @@
         <v>15.11748846566707</v>
       </c>
       <c r="E118" t="n">
-        <v>0.01936234041969798</v>
+        <v>0.019362340419698</v>
       </c>
       <c r="F118" t="n">
         <v>2.519581410944511</v>
@@ -2747,7 +2747,7 @@
         <v>18.00508236989312</v>
       </c>
       <c r="E119" t="n">
-        <v>0.006219506561131016</v>
+        <v>0.006219506561130992</v>
       </c>
       <c r="F119" t="n">
         <v>3.000847061648853</v>
@@ -2767,7 +2767,7 @@
         <v>14.33872568260606</v>
       </c>
       <c r="E120" t="n">
-        <v>0.02607298711208905</v>
+        <v>0.02607298711208902</v>
       </c>
       <c r="F120" t="n">
         <v>2.389787613767677</v>
@@ -2807,7 +2807,7 @@
         <v>19.90046827552086</v>
       </c>
       <c r="E122" t="n">
-        <v>0.002884642014147065</v>
+        <v>0.002884642014147037</v>
       </c>
       <c r="F122" t="n">
         <v>3.316744712586809</v>
@@ -2887,7 +2887,7 @@
         <v>21.63877542071552</v>
       </c>
       <c r="E126" t="n">
-        <v>0.001407528895398302</v>
+        <v>0.001407528895398332</v>
       </c>
       <c r="F126" t="n">
         <v>3.606462570119254</v>
@@ -2907,7 +2907,7 @@
         <v>16.60222292212483</v>
       </c>
       <c r="E127" t="n">
-        <v>0.01086185832720521</v>
+        <v>0.0108618583272052</v>
       </c>
       <c r="F127" t="n">
         <v>2.767037153687472</v>
@@ -2947,7 +2947,7 @@
         <v>18.05399445360102</v>
       </c>
       <c r="E129" t="n">
-        <v>0.006098667549756853</v>
+        <v>0.006098667549756823</v>
       </c>
       <c r="F129" t="n">
         <v>3.00899907560017</v>
@@ -2967,7 +2967,7 @@
         <v>15.95437662777662</v>
       </c>
       <c r="E130" t="n">
-        <v>0.01400095283832548</v>
+        <v>0.01400095283832546</v>
       </c>
       <c r="F130" t="n">
         <v>2.659062771296103</v>
@@ -2987,7 +2987,7 @@
         <v>15.99024012311214</v>
       </c>
       <c r="E131" t="n">
-        <v>0.01380644890140204</v>
+        <v>0.01380644890140199</v>
       </c>
       <c r="F131" t="n">
         <v>2.66504002051869</v>
@@ -3007,7 +3007,7 @@
         <v>23.31140059878888</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0006986169687445143</v>
+        <v>0.0006986169687444821</v>
       </c>
       <c r="F132" t="n">
         <v>3.885233433131479</v>
@@ -3027,7 +3027,7 @@
         <v>22.79060061761867</v>
       </c>
       <c r="E133" t="n">
-        <v>0.0008697321935988711</v>
+        <v>0.0008697321935988725</v>
       </c>
       <c r="F133" t="n">
         <v>3.798433436269779</v>
@@ -3047,7 +3047,7 @@
         <v>17.80649198843543</v>
       </c>
       <c r="E134" t="n">
-        <v>0.006734422017029895</v>
+        <v>0.006734422017029926</v>
       </c>
       <c r="F134" t="n">
         <v>2.967748664739238</v>
@@ -3067,7 +3067,7 @@
         <v>22.1689809027109</v>
       </c>
       <c r="E135" t="n">
-        <v>0.001128385313841296</v>
+        <v>0.001128385313841257</v>
       </c>
       <c r="F135" t="n">
         <v>3.694830150451817</v>
@@ -3087,7 +3087,7 @@
         <v>26.03128857498081</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0002196741129502078</v>
+        <v>0.0002196741129502056</v>
       </c>
       <c r="F136" t="n">
         <v>4.338548095830134</v>
@@ -3107,7 +3107,7 @@
         <v>21.89679434370216</v>
       </c>
       <c r="E137" t="n">
-        <v>0.001264131530226642</v>
+        <v>0.001264131530226656</v>
       </c>
       <c r="F137" t="n">
         <v>3.64946572395036</v>
@@ -3127,7 +3127,7 @@
         <v>37.97102311467381</v>
       </c>
       <c r="E138" t="n">
-        <v>1.138108296494522e-06</v>
+        <v>1.138108296508693e-06</v>
       </c>
       <c r="F138" t="n">
         <v>6.328503852445635</v>
@@ -3147,7 +3147,7 @@
         <v>37.09474783364849</v>
       </c>
       <c r="E139" t="n">
-        <v>1.687562298680056e-06</v>
+        <v>1.687562298685368e-06</v>
       </c>
       <c r="F139" t="n">
         <v>6.182457972274748</v>
@@ -3167,7 +3167,7 @@
         <v>24.0033165658883</v>
       </c>
       <c r="E140" t="n">
-        <v>0.0005215249600200034</v>
+        <v>0.0005215249600200159</v>
       </c>
       <c r="F140" t="n">
         <v>4.000552760981384</v>
@@ -3187,7 +3187,7 @@
         <v>25.42420789761758</v>
       </c>
       <c r="E141" t="n">
-        <v>0.0002848953024341405</v>
+        <v>0.0002848953024341696</v>
       </c>
       <c r="F141" t="n">
         <v>4.237367982936264</v>
@@ -3207,7 +3207,7 @@
         <v>26.00458274593092</v>
       </c>
       <c r="E142" t="n">
-        <v>0.0002222052233098459</v>
+        <v>0.0002222052233098624</v>
       </c>
       <c r="F142" t="n">
         <v>4.334097124321819</v>
@@ -3227,7 +3227,7 @@
         <v>25.83263336766207</v>
       </c>
       <c r="E143" t="n">
-        <v>0.0002392050230960452</v>
+        <v>0.0002392050230960344</v>
       </c>
       <c r="F143" t="n">
         <v>4.305438894610345</v>
@@ -3247,7 +3247,7 @@
         <v>21.44648049573285</v>
       </c>
       <c r="E144" t="n">
-        <v>0.001524648882572421</v>
+        <v>0.001524648882572433</v>
       </c>
       <c r="F144" t="n">
         <v>3.574413415955475</v>
@@ -3267,7 +3267,7 @@
         <v>37.30823706298009</v>
       </c>
       <c r="E145" t="n">
-        <v>1.533272114717654e-06</v>
+        <v>1.533272114744513e-06</v>
       </c>
       <c r="F145" t="n">
         <v>6.218039510496681</v>
@@ -3287,7 +3287,7 @@
         <v>44.3340179257523</v>
       </c>
       <c r="E146" t="n">
-        <v>6.346126002476637e-08</v>
+        <v>6.346125998677238e-08</v>
       </c>
       <c r="F146" t="n">
         <v>7.389002987625383</v>
@@ -3307,7 +3307,7 @@
         <v>41.94127053062826</v>
       </c>
       <c r="E147" t="n">
-        <v>1.888525388293871e-07</v>
+        <v>1.888525388287588e-07</v>
       </c>
       <c r="F147" t="n">
         <v>6.99021175510471</v>
@@ -3327,7 +3327,7 @@
         <v>40.9965904352342</v>
       </c>
       <c r="E148" t="n">
-        <v>2.90014828818741e-07</v>
+        <v>2.900148288417449e-07</v>
       </c>
       <c r="F148" t="n">
         <v>6.832765072539033</v>
@@ -3347,7 +3347,7 @@
         <v>38.82704324801426</v>
       </c>
       <c r="E149" t="n">
-        <v>7.738583985839043e-07</v>
+        <v>7.738583985615169e-07</v>
       </c>
       <c r="F149" t="n">
         <v>6.471173874669042</v>
@@ -3367,7 +3367,7 @@
         <v>35.89607289469362</v>
       </c>
       <c r="E150" t="n">
-        <v>2.887840447884926e-06</v>
+        <v>2.887840447912913e-06</v>
       </c>
       <c r="F150" t="n">
         <v>5.982678815782269</v>
@@ -3387,7 +3387,7 @@
         <v>40.12146240815458</v>
       </c>
       <c r="E151" t="n">
-        <v>4.31151648938588e-07</v>
+        <v>4.311516489330267e-07</v>
       </c>
       <c r="F151" t="n">
         <v>6.686910401359097</v>
@@ -3407,7 +3407,7 @@
         <v>37.00089736589767</v>
       </c>
       <c r="E152" t="n">
-        <v>1.760179724308308e-06</v>
+        <v>1.760179724290783e-06</v>
       </c>
       <c r="F152" t="n">
         <v>6.166816227649612</v>
@@ -3427,7 +3427,7 @@
         <v>33.42122204973047</v>
       </c>
       <c r="E153" t="n">
-        <v>8.699480352092337e-06</v>
+        <v>8.699480352079748e-06</v>
       </c>
       <c r="F153" t="n">
         <v>5.570203674955078</v>
@@ -3447,7 +3447,7 @@
         <v>50.60847461804288</v>
       </c>
       <c r="E154" t="n">
-        <v>3.549425087179259e-09</v>
+        <v>3.549425125235793e-09</v>
       </c>
       <c r="F154" t="n">
         <v>8.434745769673812</v>
@@ -3467,7 +3467,7 @@
         <v>42.60861826362572</v>
       </c>
       <c r="E155" t="n">
-        <v>1.394041708735472e-07</v>
+        <v>1.394041708575269e-07</v>
       </c>
       <c r="F155" t="n">
         <v>7.101436377270954</v>
@@ -3487,7 +3487,7 @@
         <v>36.48162465972239</v>
       </c>
       <c r="E156" t="n">
-        <v>2.221796081114391e-06</v>
+        <v>2.221796081080804e-06</v>
       </c>
       <c r="F156" t="n">
         <v>6.080270776620398</v>
@@ -3507,7 +3507,7 @@
         <v>34.69415665228537</v>
       </c>
       <c r="E157" t="n">
-        <v>4.939144227167347e-06</v>
+        <v>4.939144227143315e-06</v>
       </c>
       <c r="F157" t="n">
         <v>5.782359442047562</v>
@@ -3527,7 +3527,7 @@
         <v>37.79196632404847</v>
       </c>
       <c r="E158" t="n">
-        <v>1.233602757055863e-06</v>
+        <v>1.23360275703213e-06</v>
       </c>
       <c r="F158" t="n">
         <v>6.298661054008078</v>
@@ -3547,7 +3547,7 @@
         <v>35.90310180596494</v>
       </c>
       <c r="E159" t="n">
-        <v>2.878773714964922e-06</v>
+        <v>2.878773715005127e-06</v>
       </c>
       <c r="F159" t="n">
         <v>5.983850300994156</v>
@@ -3567,7 +3567,7 @@
         <v>31.29312957562425</v>
       </c>
       <c r="E160" t="n">
-        <v>2.228265439063737e-05</v>
+        <v>2.228265439067296e-05</v>
       </c>
       <c r="F160" t="n">
         <v>5.215521595937375</v>
@@ -3587,7 +3587,7 @@
         <v>44.23897573816</v>
       </c>
       <c r="E161" t="n">
-        <v>6.627758097899061e-08</v>
+        <v>6.627758094714809e-08</v>
       </c>
       <c r="F161" t="n">
         <v>7.373162623026666</v>
@@ -3607,7 +3607,7 @@
         <v>38.26267873372933</v>
       </c>
       <c r="E162" t="n">
-        <v>9.980459153569043e-07</v>
+        <v>9.980459153935233e-07</v>
       </c>
       <c r="F162" t="n">
         <v>6.377113122288222</v>
@@ -3627,7 +3627,7 @@
         <v>31.68384181740837</v>
       </c>
       <c r="E163" t="n">
-        <v>1.875956728825123e-05</v>
+        <v>1.875956728825184e-05</v>
       </c>
       <c r="F163" t="n">
         <v>5.280640302901396</v>
@@ -3647,7 +3647,7 @@
         <v>38.72004036489956</v>
       </c>
       <c r="E164" t="n">
-        <v>8.121250274495395e-07</v>
+        <v>8.121250274103399e-07</v>
       </c>
       <c r="F164" t="n">
         <v>6.453340060816593</v>
@@ -3667,7 +3667,7 @@
         <v>29.27198622341381</v>
       </c>
       <c r="E165" t="n">
-        <v>5.403344359511397e-05</v>
+        <v>5.403344359508121e-05</v>
       </c>
       <c r="F165" t="n">
         <v>4.878664370568969</v>
@@ -3687,7 +3687,7 @@
         <v>29.38644061747802</v>
       </c>
       <c r="E166" t="n">
-        <v>5.140075680898359e-05</v>
+        <v>5.140075680896368e-05</v>
       </c>
       <c r="F166" t="n">
         <v>4.897740102913002</v>
@@ -3707,7 +3707,7 @@
         <v>37.83652850119557</v>
       </c>
       <c r="E167" t="n">
-        <v>1.20911748235919e-06</v>
+        <v>1.209117482387017e-06</v>
       </c>
       <c r="F167" t="n">
         <v>6.306088083532594</v>
@@ -3727,7 +3727,7 @@
         <v>34.82225682295442</v>
       </c>
       <c r="E168" t="n">
-        <v>4.665016228311281e-06</v>
+        <v>4.665016228329767e-06</v>
       </c>
       <c r="F168" t="n">
         <v>5.803709470492404</v>
@@ -3747,7 +3747,7 @@
         <v>25.96101920346267</v>
       </c>
       <c r="E169" t="n">
-        <v>0.000226395933602408</v>
+        <v>0.0002263959336024459</v>
       </c>
       <c r="F169" t="n">
         <v>4.326836533910445</v>
@@ -3767,7 +3767,7 @@
         <v>31.47248133360237</v>
       </c>
       <c r="E170" t="n">
-        <v>2.059069799009716e-05</v>
+        <v>2.059069799005884e-05</v>
       </c>
       <c r="F170" t="n">
         <v>5.245413555600396</v>
@@ -3787,7 +3787,7 @@
         <v>27.10058888225118</v>
       </c>
       <c r="E171" t="n">
-        <v>0.0001386570605595994</v>
+        <v>0.0001386570605595772</v>
       </c>
       <c r="F171" t="n">
         <v>4.516764813708531</v>
@@ -3807,7 +3807,7 @@
         <v>28.53100704368467</v>
       </c>
       <c r="E172" t="n">
-        <v>7.461436780553665e-05</v>
+        <v>7.461436780554961e-05</v>
       </c>
       <c r="F172" t="n">
         <v>4.755167840614113</v>
@@ -3827,7 +3827,7 @@
         <v>31.40730394750061</v>
       </c>
       <c r="E173" t="n">
-        <v>2.119030624880835e-05</v>
+        <v>2.119030624883805e-05</v>
       </c>
       <c r="F173" t="n">
         <v>5.234550657916769</v>
@@ -3847,7 +3847,7 @@
         <v>17.73370313395899</v>
       </c>
       <c r="E174" t="n">
-        <v>0.00693331096689398</v>
+        <v>0.006933310966893941</v>
       </c>
       <c r="F174" t="n">
         <v>2.955617188993165</v>
@@ -3867,7 +3867,7 @@
         <v>31.40934830356822</v>
       </c>
       <c r="E175" t="n">
-        <v>2.117123870326587e-05</v>
+        <v>2.117123870324298e-05</v>
       </c>
       <c r="F175" t="n">
         <v>5.234891383928037</v>
@@ -3887,7 +3887,7 @@
         <v>24.00596775694889</v>
       </c>
       <c r="E176" t="n">
-        <v>0.0005209396718812709</v>
+        <v>0.000520939671881309</v>
       </c>
       <c r="F176" t="n">
         <v>4.000994626158149</v>
@@ -3907,7 +3907,7 @@
         <v>19.25390363551411</v>
       </c>
       <c r="E177" t="n">
-        <v>0.003755641017031963</v>
+        <v>0.003755641017031909</v>
       </c>
       <c r="F177" t="n">
         <v>3.208983939252352</v>
@@ -3927,7 +3927,7 @@
         <v>25.04824024854298</v>
       </c>
       <c r="E178" t="n">
-        <v>0.0003345028197583311</v>
+        <v>0.0003345028197583387</v>
       </c>
       <c r="F178" t="n">
         <v>4.174706708090497</v>
@@ -3947,7 +3947,7 @@
         <v>19.40414674687826</v>
       </c>
       <c r="E179" t="n">
-        <v>0.003532842632822941</v>
+        <v>0.003532842632822964</v>
       </c>
       <c r="F179" t="n">
         <v>3.234024457813044</v>
@@ -3967,7 +3967,7 @@
         <v>28.4662574692411</v>
       </c>
       <c r="E180" t="n">
-        <v>7.674436697446829e-05</v>
+        <v>7.674436697445207e-05</v>
       </c>
       <c r="F180" t="n">
         <v>4.744376244873517</v>
@@ -3987,7 +3987,7 @@
         <v>50.48319554738212</v>
       </c>
       <c r="E181" t="n">
-        <v>3.760920352924302e-09</v>
+        <v>3.760920389687313e-09</v>
       </c>
       <c r="F181" t="n">
         <v>8.413865924563686</v>
@@ -4007,7 +4007,7 @@
         <v>48.75869260086921</v>
       </c>
       <c r="E182" t="n">
-        <v>8.332762924112558e-09</v>
+        <v>8.332762966843277e-09</v>
       </c>
       <c r="F182" t="n">
         <v>8.126448766811535</v>
@@ -4027,7 +4027,7 @@
         <v>32.94460287939972</v>
       </c>
       <c r="E183" t="n">
-        <v>1.074634778464034e-05</v>
+        <v>1.074634778464321e-05</v>
       </c>
       <c r="F183" t="n">
         <v>5.490767146566621</v>
@@ -4047,7 +4047,7 @@
         <v>36.11376057472798</v>
       </c>
       <c r="E184" t="n">
-        <v>2.619777237256038e-06</v>
+        <v>2.619777237264648e-06</v>
       </c>
       <c r="F184" t="n">
         <v>6.018960095787996</v>
@@ -4067,7 +4067,7 @@
         <v>39.49318707549098</v>
       </c>
       <c r="E185" t="n">
-        <v>5.728419574246857e-07</v>
+        <v>5.728419573738091e-07</v>
       </c>
       <c r="F185" t="n">
         <v>6.582197845915164</v>
@@ -4087,7 +4087,7 @@
         <v>55.20534289027712</v>
       </c>
       <c r="E186" t="n">
-        <v>4.213333015812282e-10</v>
+        <v>4.213333435903187e-10</v>
       </c>
       <c r="F186" t="n">
         <v>9.200890481712854</v>
@@ -4107,7 +4107,7 @@
         <v>47.93875195020159</v>
       </c>
       <c r="E187" t="n">
-        <v>1.215384459740676e-08</v>
+        <v>1.215384462101482e-08</v>
       </c>
       <c r="F187" t="n">
         <v>7.989791991700265</v>
@@ -4127,7 +4127,7 @@
         <v>48.77989410263658</v>
       </c>
       <c r="E188" t="n">
-        <v>8.251774374912202e-09</v>
+        <v>8.251774387699564e-09</v>
       </c>
       <c r="F188" t="n">
         <v>8.129982350439429</v>
@@ -4147,7 +4147,7 @@
         <v>46.234637917676</v>
       </c>
       <c r="E189" t="n">
-        <v>2.658581776948665e-08</v>
+        <v>2.658581773241708e-08</v>
       </c>
       <c r="F189" t="n">
         <v>7.705772986279334</v>
@@ -4167,7 +4167,7 @@
         <v>50.17335049567121</v>
       </c>
       <c r="E190" t="n">
-        <v>4.339508641315604e-09</v>
+        <v>4.339508618615184e-09</v>
       </c>
       <c r="F190" t="n">
         <v>8.362225082611868</v>
@@ -4187,7 +4187,7 @@
         <v>52.80631452558745</v>
       </c>
       <c r="E191" t="n">
-        <v>1.283523065609415e-09</v>
+        <v>1.283523018105543e-09</v>
       </c>
       <c r="F191" t="n">
         <v>8.80105242093124</v>
@@ -4207,7 +4207,7 @@
         <v>57.8209339008022</v>
       </c>
       <c r="E192" t="n">
-        <v>1.24579124793911e-10</v>
+        <v>1.245791307626728e-10</v>
       </c>
       <c r="F192" t="n">
         <v>9.636822316800368</v>
@@ -4227,7 +4227,7 @@
         <v>58.58281602193557</v>
       </c>
       <c r="E193" t="n">
-        <v>8.729417189101696e-11</v>
+        <v>8.729414416083532e-11</v>
       </c>
       <c r="F193" t="n">
         <v>9.763802670322596</v>
@@ -4247,7 +4247,7 @@
         <v>49.25839287771596</v>
       </c>
       <c r="E194" t="n">
-        <v>6.61875865226591e-09</v>
+        <v>6.618758663153214e-09</v>
       </c>
       <c r="F194" t="n">
         <v>8.209732146285994</v>
@@ -4267,7 +4267,7 @@
         <v>54.2369838146336</v>
       </c>
       <c r="E195" t="n">
-        <v>6.608328328994162e-10</v>
+        <v>6.608328156645853e-10</v>
       </c>
       <c r="F195" t="n">
         <v>9.039497302438933</v>
@@ -4287,7 +4287,7 @@
         <v>51.67729379006959</v>
       </c>
       <c r="E196" t="n">
-        <v>2.16526963026098e-09</v>
+        <v>2.165269595494513e-09</v>
       </c>
       <c r="F196" t="n">
         <v>8.612882298344932</v>
@@ -4307,7 +4307,7 @@
         <v>42.9392320983348</v>
       </c>
       <c r="E197" t="n">
-        <v>1.19918134866559e-07</v>
+        <v>1.199181348341539e-07</v>
       </c>
       <c r="F197" t="n">
         <v>7.1565386830558</v>
@@ -4327,7 +4327,7 @@
         <v>32.19849496644835</v>
       </c>
       <c r="E198" t="n">
-        <v>1.494832310811045e-05</v>
+        <v>1.494832310811697e-05</v>
       </c>
       <c r="F198" t="n">
         <v>5.366415827741392</v>
@@ -4347,7 +4347,7 @@
         <v>31.89491936226597</v>
       </c>
       <c r="E199" t="n">
-        <v>1.709208083566782e-05</v>
+        <v>1.709208083561679e-05</v>
       </c>
       <c r="F199" t="n">
         <v>5.315819893710994</v>
@@ -4367,7 +4367,7 @@
         <v>19.58942663856751</v>
       </c>
       <c r="E200" t="n">
-        <v>0.003275770034170677</v>
+        <v>0.003275770034170685</v>
       </c>
       <c r="F200" t="n">
         <v>3.264904439761251</v>
@@ -4387,7 +4387,7 @@
         <v>29.82951414202804</v>
       </c>
       <c r="E201" t="n">
-        <v>4.235304558419806e-05</v>
+        <v>4.235304558422822e-05</v>
       </c>
       <c r="F201" t="n">
         <v>4.971585690338006</v>
@@ -4407,7 +4407,7 @@
         <v>23.48807502480455</v>
       </c>
       <c r="E202" t="n">
-        <v>0.0006484541220996842</v>
+        <v>0.0006484541220996861</v>
       </c>
       <c r="F202" t="n">
         <v>3.914679170800758</v>
@@ -4427,7 +4427,7 @@
         <v>33.26146869093682</v>
       </c>
       <c r="E203" t="n">
-        <v>9.33833738259171e-06</v>
+        <v>9.338337382616683e-06</v>
       </c>
       <c r="F203" t="n">
         <v>5.543578115156137</v>
@@ -4447,7 +4447,7 @@
         <v>42.30703521643164</v>
       </c>
       <c r="E204" t="n">
-        <v>1.599128756080148e-07</v>
+        <v>1.599128756288224e-07</v>
       </c>
       <c r="F204" t="n">
         <v>7.051172536071939</v>
@@ -4467,7 +4467,7 @@
         <v>31.29549337984707</v>
       </c>
       <c r="E205" t="n">
-        <v>2.225948316814108e-05</v>
+        <v>2.225948316818065e-05</v>
       </c>
       <c r="F205" t="n">
         <v>5.215915563307845</v>
@@ -4487,7 +4487,7 @@
         <v>46.69179468567683</v>
       </c>
       <c r="E206" t="n">
-        <v>2.155555844929324e-08</v>
+        <v>2.155555849830249e-08</v>
       </c>
       <c r="F206" t="n">
         <v>7.781965780946138</v>
@@ -4507,7 +4507,7 @@
         <v>30.58156492999067</v>
       </c>
       <c r="E207" t="n">
-        <v>3.046385156746378e-05</v>
+        <v>3.046385156744278e-05</v>
       </c>
       <c r="F207" t="n">
         <v>5.096927488331779</v>
@@ -4527,7 +4527,7 @@
         <v>33.01037210510177</v>
       </c>
       <c r="E208" t="n">
-        <v>1.043775738018837e-05</v>
+        <v>1.043775738016469e-05</v>
       </c>
       <c r="F208" t="n">
         <v>5.501728684183629</v>
@@ -4547,7 +4547,7 @@
         <v>39.17713525332366</v>
       </c>
       <c r="E209" t="n">
-        <v>6.607524511981211e-07</v>
+        <v>6.607524512242941e-07</v>
       </c>
       <c r="F209" t="n">
         <v>6.529522542220609</v>
@@ -4567,7 +4567,7 @@
         <v>30.71065687401128</v>
       </c>
       <c r="E210" t="n">
-        <v>2.87855584331087e-05</v>
+        <v>2.878555843311974e-05</v>
       </c>
       <c r="F210" t="n">
         <v>5.118442812335214</v>
@@ -4587,7 +4587,7 @@
         <v>33.06867806589392</v>
       </c>
       <c r="E211" t="n">
-        <v>1.017154354676642e-05</v>
+        <v>1.01715435467233e-05</v>
       </c>
       <c r="F211" t="n">
         <v>5.511446344315654</v>
@@ -4607,7 +4607,7 @@
         <v>47.28572404783617</v>
       </c>
       <c r="E212" t="n">
-        <v>1.640976465822064e-08</v>
+        <v>1.640976462028729e-08</v>
       </c>
       <c r="F212" t="n">
         <v>7.880954007972695</v>
@@ -4627,7 +4627,7 @@
         <v>25.69521662372791</v>
       </c>
       <c r="E213" t="n">
-        <v>0.0002537073744528495</v>
+        <v>0.0002537073744527949</v>
       </c>
       <c r="F213" t="n">
         <v>4.282536103954651</v>
@@ -4647,7 +4647,7 @@
         <v>42.2986501535613</v>
       </c>
       <c r="E214" t="n">
-        <v>1.605240711466394e-07</v>
+        <v>1.605240711048667e-07</v>
       </c>
       <c r="F214" t="n">
         <v>7.049775025593551</v>
@@ -4667,7 +4667,7 @@
         <v>49.4478802993792</v>
       </c>
       <c r="E215" t="n">
-        <v>6.064989066523196e-09</v>
+        <v>6.064989068100443e-09</v>
       </c>
       <c r="F215" t="n">
         <v>8.241313383229867</v>
@@ -4687,7 +4687,7 @@
         <v>39.32928515677526</v>
       </c>
       <c r="E216" t="n">
-        <v>6.168731515598935e-07</v>
+        <v>6.168731516035058e-07</v>
       </c>
       <c r="F216" t="n">
         <v>6.554880859462543</v>
@@ -4707,7 +4707,7 @@
         <v>23.2529808383674</v>
       </c>
       <c r="E217" t="n">
-        <v>0.0007160283954176228</v>
+        <v>0.0007160283954176309</v>
       </c>
       <c r="F217" t="n">
         <v>3.875496806394566</v>
@@ -4727,7 +4727,7 @@
         <v>6.411029670906714</v>
       </c>
       <c r="E218" t="n">
-        <v>0.3787539716640207</v>
+        <v>0.3787539716640206</v>
       </c>
       <c r="F218" t="n">
         <v>1.068504945151119</v>
@@ -4747,7 +4747,7 @@
         <v>25.00635341552062</v>
       </c>
       <c r="E219" t="n">
-        <v>0.0003405309479290741</v>
+        <v>0.0003405309479290237</v>
       </c>
       <c r="F219" t="n">
         <v>4.167725569253437</v>
@@ -4767,7 +4767,7 @@
         <v>14.2687967935849</v>
       </c>
       <c r="E220" t="n">
-        <v>0.02677351507617698</v>
+        <v>0.02677351507617701</v>
       </c>
       <c r="F220" t="n">
         <v>2.378132798930817</v>
@@ -4787,7 +4787,7 @@
         <v>7.935817927268878</v>
       </c>
       <c r="E221" t="n">
-        <v>0.2428432724446177</v>
+        <v>0.2428432724446176</v>
       </c>
       <c r="F221" t="n">
         <v>1.32263632121148</v>
@@ -4827,7 +4827,7 @@
         <v>9.29364514785988</v>
       </c>
       <c r="E223" t="n">
-        <v>0.1577246769419434</v>
+        <v>0.1577246769419433</v>
       </c>
       <c r="F223" t="n">
         <v>1.548940857976647</v>
@@ -4887,7 +4887,7 @@
         <v>6.154062261844592</v>
       </c>
       <c r="E226" t="n">
-        <v>0.4061552455435038</v>
+        <v>0.4061552455435039</v>
       </c>
       <c r="F226" t="n">
         <v>1.025677043640765</v>
@@ -4907,7 +4907,7 @@
         <v>16.68734838332671</v>
       </c>
       <c r="E227" t="n">
-        <v>0.01050364264042125</v>
+        <v>0.0105036426404212</v>
       </c>
       <c r="F227" t="n">
         <v>2.781224730554451</v>
@@ -4927,7 +4927,7 @@
         <v>9.629035798294765</v>
       </c>
       <c r="E228" t="n">
-        <v>0.1411686409143686</v>
+        <v>0.1411686409143687</v>
       </c>
       <c r="F228" t="n">
         <v>1.604839299715794</v>
@@ -4947,7 +4947,7 @@
         <v>14.529008960234</v>
       </c>
       <c r="E229" t="n">
-        <v>0.02425391091136508</v>
+        <v>0.02425391091136513</v>
       </c>
       <c r="F229" t="n">
         <v>2.421501493372334</v>
